--- a/Hardware/Electronics/Data Acquisition Board/DAQ Board/BoM.xlsx
+++ b/Hardware/Electronics/Data Acquisition Board/DAQ Board/BoM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\trunk\Hardware\Electronics\Data Acquisition Board\DAQ Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971C0143-813F-4E42-B231-CD67A3690079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692D9C0-957E-41F9-84E5-3FAA13C0059C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="3990" windowWidth="18900" windowHeight="11055" xr2:uid="{6508AD80-5785-495C-937B-5500FE895B69}"/>
+    <workbookView xWindow="4560" yWindow="2940" windowWidth="18900" windowHeight="11055" xr2:uid="{6508AD80-5785-495C-937B-5500FE895B69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="337">
   <si>
     <t xml:space="preserve">    ADC1</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C10</t>
   </si>
   <si>
@@ -269,18 +266,6 @@
     <t xml:space="preserve">    C61</t>
   </si>
   <si>
-    <t xml:space="preserve">    D1</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_SOD-123F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    D2</t>
-  </si>
-  <si>
-    <t>MURA140T3GOSCT-ND</t>
-  </si>
-  <si>
     <t>Diode_SMD:D_SMA</t>
   </si>
   <si>
@@ -359,12 +344,6 @@
     <t>Connector_USB:USB_Micro-B_Wuerth_629105150521</t>
   </si>
   <si>
-    <t xml:space="preserve">    J3</t>
-  </si>
-  <si>
-    <t>Battery Connector</t>
-  </si>
-  <si>
     <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
   </si>
   <si>
@@ -581,15 +560,6 @@
     <t xml:space="preserve">    R26</t>
   </si>
   <si>
-    <t xml:space="preserve">    SW1</t>
-  </si>
-  <si>
-    <t>DIP</t>
-  </si>
-  <si>
-    <t>Switches:DIP-Switch_01x01</t>
-  </si>
-  <si>
     <t xml:space="preserve">    SW2</t>
   </si>
   <si>
@@ -641,9 +611,6 @@
     <t>Package_QFP:TQFP-32_7x7mm_P0.8mm</t>
   </si>
   <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/ATmega328_P%20AVR%20MCU%20with%20picoPower%20Technology%20Data%20Sheet%2040001984A.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U2</t>
   </si>
   <si>
@@ -659,9 +626,6 @@
     <t>LM3480-3.3</t>
   </si>
   <si>
-    <t>http://www.ti.com/lit/ds/symlink/lm3480.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U4</t>
   </si>
   <si>
@@ -674,9 +638,6 @@
     <t>Package_SO:SSOP-28_5.3x10.2mm_P0.65mm</t>
   </si>
   <si>
-    <t>http://www.ftdichip.com/Products/ICs/FT232RL.htm</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Y1</t>
   </si>
   <si>
@@ -704,9 +665,6 @@
     <t>THT</t>
   </si>
   <si>
-    <t>PMEG3020EH,115</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -716,36 +674,12 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/product-detail/en/texas-instruments/ADS1299IPAG/296-35009-ND/3675170</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
     <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587390</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587391</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587392</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587393</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587394</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587395</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587396</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587397</t>
-  </si>
-  <si>
     <t>0.022µF ±5% 50V Ceramic Capacitor C0G, NP0 0805 (2012 Metric)</t>
   </si>
   <si>
@@ -755,18 +689,12 @@
     <t>https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10B105MO8NNWC/1276-6524-1-ND/5961383</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10B105MO8NNWC/1276-6524-1-ND/5961384</t>
-  </si>
-  <si>
     <t>0.1µF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
     <t>https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320687</t>
-  </si>
-  <si>
     <t>https://www.digikey.com.au/product-detail/en/avx-corporation/TLJA107M010R1400/478-5651-1-ND/2077306</t>
   </si>
   <si>
@@ -785,30 +713,6 @@
     <t>https://www.digikey.com/product-detail/en/yageo/CC0603KRX7R9BB102/311-1080-1-ND/302990</t>
   </si>
   <si>
-    <t>4.7µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/taiyo-yuden/LMK107BJ475KA-T/587-1441-1-ND/1004072</t>
-  </si>
-  <si>
-    <t>10µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/murata-electronics/GRM188R61A106KE69J/490-14372-1-ND/6606833</t>
-  </si>
-  <si>
-    <t>Diode Schottky 30V 2A (DC) Surface Mount SOD-123F</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/nexperia-usa-inc/PMEG3020EH115/1727-3873-1-ND/1589944</t>
-  </si>
-  <si>
-    <t>Diode Standard 400V 2A Surface Mount SMA</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=MURA140T3GOSCT-ND</t>
-  </si>
-  <si>
     <t>Zener Diode 7.5V 1.5W ±5% Surface Mount SMA</t>
   </si>
   <si>
@@ -839,30 +743,15 @@
     <t>https://www.digikey.com/product-detail/en/lite-on-inc/LTST-C191KRKT/160-1447-1-ND/386836</t>
   </si>
   <si>
-    <t>4A 125V AC 125V DC Fuse Board Mount (Cartridge Style Excluded) Through Hole Axial</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/littelfuse-inc/0251004.NRT1L/F5999CT-ND/4146353</t>
-  </si>
-  <si>
     <t>Polymeric PTC Resettable Fuse 15V 500mA Ih Surface Mount 1812 (4532 Metric), Concave</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/bourns-inc/MF-MSMF050-2/MF-MSMF050-2CT-ND/662842</t>
-  </si>
-  <si>
     <t>Connector Header Through Hole 9 position 0.100" (2.54mm)</t>
   </si>
   <si>
     <t>https://www.digikey.com.au/product-detail/en/te-connectivity-amp-connectors/5-103669-8/A33906-ND/1122469</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Housing FFC Housing for Female Contacts Connector Latch Lock 9Pos 0.100" (2.54mm</t>
-  </si>
-  <si>
     <t>https://www.digikey.com.au/product-detail/en/te-connectivity-amp-connectors/487526-8/487526-8-ND/293393</t>
   </si>
   <si>
@@ -896,21 +785,12 @@
     <t>Tactile Switch SPST-NO Top Actuated Through Hole</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/product-detail/en/diodes-incorporated/DMP2100U-7/DMP2100U-7DKR-ND/3829370</t>
-  </si>
-  <si>
-    <t>P-Channel 20V 4.3A (Ta) 800mW (Ta) Surface Mount SOT-2</t>
-  </si>
-  <si>
     <t>100 Ohms ±5% 0.25W, 1/4W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
   </si>
   <si>
     <t>https://www.digikey.com.au/product-detail/en/rohm-semiconductor/ESR03EZPJ101/RHM100DCT-ND/1983776</t>
   </si>
   <si>
-    <t>10 kOhms ±0.5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Thin Film</t>
-  </si>
-  <si>
     <t>https://www.digikey.com.au/product-detail/en/yageo/RT0603DRD0710KL/311-10KDCT-ND/1035680</t>
   </si>
   <si>
@@ -923,9 +803,6 @@
     <t>220 kOhms ±0.1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thin Film</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB224V/P220KDBCT-ND/1466108</t>
-  </si>
-  <si>
     <t>2 kOhms ±0.1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thin Film</t>
   </si>
   <si>
@@ -936,6 +813,240 @@
   </si>
   <si>
     <t>https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB333V/P33KDBCT-ND/1466088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R27</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>Digikey Part #</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/ads1299.pdf</t>
+  </si>
+  <si>
+    <t>RHM100DCT-ND</t>
+  </si>
+  <si>
+    <t>609-4434-ND</t>
+  </si>
+  <si>
+    <t>1276-CL10B104KB8NNNLCT-ND</t>
+  </si>
+  <si>
+    <t>1.5A 125V AC 125V DC Fuse Board Mount (Cartridge Style Excluded) Through Hole Axial</t>
+  </si>
+  <si>
+    <t>F1851CT-ND</t>
+  </si>
+  <si>
+    <t>digikey.com/product-detail/en/littelfuse-inc/025101.5MAT1L/F1851CT-ND/2690162</t>
+  </si>
+  <si>
+    <t>100 kOhms ±1% 0.25W, 1/4W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
+    <t>RHM100KADCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/rohm-semiconductor/ESR03EZPF1003/RHM100KADCT-ND/1983754</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686</t>
+  </si>
+  <si>
+    <t>478-5651-1-ND</t>
+  </si>
+  <si>
+    <t>10 kOhms ±0.5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric)  Thin Film</t>
+  </si>
+  <si>
+    <t>311-10KDCT-ND</t>
+  </si>
+  <si>
+    <t>445-5662-1-ND</t>
+  </si>
+  <si>
+    <t>10µF ±20% 6.3V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>1276-1119-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10A106MQ8NNNC/1276-1119-1-ND/3889205</t>
+  </si>
+  <si>
+    <t>16MHz Ceramic Resonator Built in Capacitor 15pF ±0.3% 40 Ohms -40°C ~ 125°C Surface Mount</t>
+  </si>
+  <si>
+    <t>490-17950-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/CSTNE16M0V53Z000R0/490-17950-1-ND/8747758</t>
+  </si>
+  <si>
+    <t>RHM1.0KDCT-ND</t>
+  </si>
+  <si>
+    <t>311-1080-1-ND</t>
+  </si>
+  <si>
+    <t>1276-6524-1-ND</t>
+  </si>
+  <si>
+    <t>P220KDBCT-ND</t>
+  </si>
+  <si>
+    <t>digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB224V/P220KDBCT-ND/1466108</t>
+  </si>
+  <si>
+    <t>490-1644-1-ND</t>
+  </si>
+  <si>
+    <t>P2.0KDBCT-ND</t>
+  </si>
+  <si>
+    <t>P33KDBCT-ND</t>
+  </si>
+  <si>
+    <t>4.7µF ±20% 6.3V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>1276-1907-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10A475MQ8NNNC/1276-1907-1-ND/3889993</t>
+  </si>
+  <si>
+    <t>1SMA5922BT3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>AVR AVR® ATmega Microcontroller IC 8-Bit 20MHz 32KB (16K x 16) FLASH 32-TQFP (7x7)</t>
+  </si>
+  <si>
+    <t>ATMEGA328PB-AU-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/microchip-technology/ATMEGA328PB-AU/ATMEGA328PB-AU-ND/5638812</t>
+  </si>
+  <si>
+    <t>B130-FDICT-ND</t>
+  </si>
+  <si>
+    <t>A33906-ND</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Conn_01x09_Female</t>
+  </si>
+  <si>
+    <t>Housing FFC Housing for Female Contacts Connector Latch Lock 9Pos 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>487526-8-ND</t>
+  </si>
+  <si>
+    <t>CP-063AH-ND</t>
+  </si>
+  <si>
+    <t>P-Channel 20V 4.3A (Ta) 800mW (Ta) Surface Mount SOT-23</t>
+  </si>
+  <si>
+    <t>DMP2100U-7CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/DMP2100U-7/DMP2100U-7CT-ND/3829371</t>
+  </si>
+  <si>
+    <t>USB Bridge, USB to UART USB 2.0 UART Interface 28-SSOP</t>
+  </si>
+  <si>
+    <t>768-1007-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/ftdi-future-technology-devices-international-ltd/FT232RL-REEL/768-1007-1-ND/1836402</t>
+  </si>
+  <si>
+    <t>6 Position Header Connector  Through Hole, Right Angle</t>
+  </si>
+  <si>
+    <t>S5481-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/sullins-connector-solutions/PPPC061LGBN-RC/S5481-ND/775939</t>
+  </si>
+  <si>
+    <t>609-3210-ND</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC  1 Output  100mA SOT-23-3</t>
+  </si>
+  <si>
+    <t>LM3480IM3-3.3/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/texas-instruments/LM3480IM3-3.3-NOPB/LM3480IM3-3.3-NOPBCT-ND/270750</t>
+  </si>
+  <si>
+    <t>160-1446-1-ND</t>
+  </si>
+  <si>
+    <t>160-1447-1-ND</t>
+  </si>
+  <si>
+    <t>160-1837-1-ND</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC Positive Fixed 1 Output  300mA SOT-223-5</t>
+  </si>
+  <si>
+    <t>MCP1755T-5002E/DCCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/microchip-technology/MCP1755T-5002E-DC/MCP1755T-5002E-DCCT-ND/4484876</t>
+  </si>
+  <si>
+    <t>MF-MSMF050-2CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/bourns-inc/MF-MSMF050-2/MF-MSMF050-2CT-ND/662842</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Silkscreen</t>
+  </si>
+  <si>
+    <t>Dip Switch SPST 2 Position Surface Mount Slide (Standard) Actuator 100mA 20VDC</t>
+  </si>
+  <si>
+    <t>CT3113CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/cts-electrocomponents/219-2LPSTR/CT3113CT-ND/5875765</t>
+  </si>
+  <si>
+    <t>Slide Switch SPDT Through Hole</t>
+  </si>
+  <si>
+    <t>EG1903-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/e-switch/EG1218/EG1903-ND/101726</t>
+  </si>
+  <si>
+    <t>450-1650-ND</t>
+  </si>
+  <si>
+    <t>732-5960-1-ND</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181FC57-BB23-449F-BF30-EC34F690F6DF}">
-  <dimension ref="B1:I141"/>
+  <dimension ref="B1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,36 +1448,40 @@
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.7109375" customWidth="1"/>
-    <col min="9" max="9" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="148.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="J1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1382,14 +1497,18 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <f>1-F2</f>
+        <v>0</v>
+      </c>
       <c r="H2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1405,14 +1524,21 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">1-F3</f>
+        <v>0</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1428,14 +1554,21 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1451,14 +1584,21 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1474,14 +1614,21 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -1497,14 +1644,21 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -1520,14 +1674,21 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H8" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1543,14 +1704,21 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -1566,14 +1734,21 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1589,16 +1764,23 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1612,19 +1794,26 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H12" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1635,19 +1824,26 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H13" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1658,16 +1854,23 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H14" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1681,16 +1884,23 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H15" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1704,19 +1914,26 @@
       <c r="F16">
         <v>1</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1727,22 +1944,29 @@
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
       </c>
       <c r="E18">
         <v>1.48</v>
@@ -1750,16 +1974,23 @@
       <c r="F18">
         <v>1</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H18" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1773,16 +2004,23 @@
       <c r="F19">
         <v>1</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H19" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1796,16 +2034,23 @@
       <c r="F20">
         <v>1</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H20" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1819,19 +2064,26 @@
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H21" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1842,16 +2094,23 @@
       <c r="F22">
         <v>1</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H22" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1865,39 +2124,53 @@
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H23" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H24" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1911,39 +2184,53 @@
       <c r="F25">
         <v>1</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H25" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H26" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1957,22 +2244,29 @@
       <c r="F27">
         <v>1</v>
       </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H27" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
         <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
       </c>
       <c r="E28">
         <v>1.48</v>
@@ -1980,45 +2274,59 @@
       <c r="F28">
         <v>1</v>
       </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H28" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
         <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H29" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
         <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
       </c>
       <c r="E30">
         <v>1.48</v>
@@ -2026,65 +2334,86 @@
       <c r="F30">
         <v>1</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H30" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H31" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H32" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
         <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -2095,42 +2424,56 @@
       <c r="F33">
         <v>1</v>
       </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H33" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H34" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -2141,19 +2484,26 @@
       <c r="F35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H35" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
         <v>48</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -2164,19 +2514,26 @@
       <c r="F36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H36" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -2187,19 +2544,26 @@
       <c r="F37">
         <v>1</v>
       </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H37" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -2210,42 +2574,56 @@
       <c r="F38">
         <v>1</v>
       </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H38" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H39" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -2256,91 +2634,119 @@
       <c r="F40">
         <v>1</v>
       </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H40" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H41" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H42" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H43" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
         <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
       </c>
       <c r="E44">
         <v>1.48</v>
@@ -2348,45 +2754,59 @@
       <c r="F44">
         <v>1</v>
       </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H44" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H45" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
         <v>25</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
       </c>
       <c r="E46">
         <v>1.48</v>
@@ -2394,65 +2814,86 @@
       <c r="F46">
         <v>1</v>
       </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H46" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H47" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H48" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -2463,19 +2904,26 @@
       <c r="F49">
         <v>1</v>
       </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H49" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -2486,19 +2934,26 @@
       <c r="F50">
         <v>1</v>
       </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H50" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -2509,180 +2964,236 @@
       <c r="F51">
         <v>1</v>
       </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H51" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H52" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H53" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H54" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H55" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H56" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H57" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H58" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2693,19 +3204,26 @@
       <c r="F59">
         <v>1</v>
       </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H59" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -2716,252 +3234,329 @@
       <c r="F60">
         <v>1</v>
       </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H60" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H61" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H62" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H63" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>0.15</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C65" t="s">
         <v>78</v>
       </c>
-      <c r="E64">
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65">
         <v>0.44</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>79</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>80</v>
-      </c>
-      <c r="D65" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65">
-        <v>0.45</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" t="s">
-        <v>83</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
       </c>
       <c r="E66">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H66" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="1">1-F67</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>84</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68">
+        <v>0.45</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>85</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C69" t="s">
         <v>86</v>
       </c>
-      <c r="E67">
-        <v>0.45</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69">
+        <v>0.34</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>87</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C70" t="s">
         <v>88</v>
-      </c>
-      <c r="D68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69">
-        <v>0.45</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" t="s">
-        <v>91</v>
       </c>
       <c r="D70" t="s">
         <v>81</v>
       </c>
       <c r="E70">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H70" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E71">
         <v>0.28000000000000003</v>
@@ -2969,218 +3564,290 @@
       <c r="F71">
         <v>1</v>
       </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H71" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72">
+        <v>0.94</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73">
+        <v>0.72</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74">
+        <v>2.58</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75">
+        <v>3.38</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76">
+        <v>2.08</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77">
+        <v>1.01</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78">
+        <v>0.66</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73">
-        <v>0.93</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E74">
-        <v>0.47</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="J79" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" t="s">
         <v>102</v>
       </c>
-      <c r="D75" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75">
-        <v>2.58</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>273</v>
-      </c>
-      <c r="C76" t="s">
-        <v>273</v>
-      </c>
-      <c r="D76" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76">
-        <v>1.38</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77">
-        <v>3.38</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" t="s">
-        <v>109</v>
-      </c>
-      <c r="E78">
+      <c r="E80">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" t="s">
-        <v>112</v>
-      </c>
-      <c r="E79">
-        <v>2.08</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80">
+      <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>116</v>
       </c>
@@ -3188,114 +3855,148 @@
         <v>117</v>
       </c>
       <c r="D81" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>118</v>
       </c>
-      <c r="E81">
-        <v>0.66</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="I81" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>119</v>
       </c>
-      <c r="C82" t="s">
-        <v>120</v>
-      </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E82">
         <v>0.28999999999999998</v>
       </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
       <c r="G82">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" t="s">
         <v>121</v>
       </c>
-      <c r="C83" t="s">
-        <v>122</v>
-      </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E83">
         <v>0.28999999999999998</v>
       </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
       <c r="G83">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" t="s">
         <v>123</v>
       </c>
-      <c r="C84" t="s">
-        <v>124</v>
-      </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E84">
         <v>0.28999999999999998</v>
       </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
       <c r="G84">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" t="s">
         <v>125</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>126</v>
       </c>
-      <c r="D85" t="s">
-        <v>109</v>
-      </c>
       <c r="E85">
-        <v>0.28999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J85" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>127</v>
       </c>
@@ -3303,146 +4004,264 @@
         <v>128</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E86">
-        <v>0.28999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E87">
-        <v>0.28999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" t="s">
         <v>131</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>132</v>
       </c>
-      <c r="D88" t="s">
-        <v>133</v>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="I88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="J88" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>134</v>
       </c>
       <c r="C89" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I89" t="s">
+        <v>301</v>
+      </c>
+      <c r="J89" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>135</v>
       </c>
-      <c r="D89" t="s">
+      <c r="C90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I90" t="s">
+        <v>301</v>
+      </c>
+      <c r="J90" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="C91" t="s">
         <v>137</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D91" t="s">
         <v>138</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E91">
+        <v>0.15</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>248</v>
+      </c>
+      <c r="I91" t="s">
+        <v>335</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="C92" t="s">
         <v>140</v>
       </c>
-      <c r="C91" t="s">
-        <v>138</v>
-      </c>
-      <c r="D91" t="s">
-        <v>139</v>
-      </c>
-      <c r="I91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>141</v>
       </c>
-      <c r="C92" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" t="s">
-        <v>139</v>
+      <c r="E92">
+        <v>0.42</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>306</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="E93">
+        <v>0.31</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>275</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" t="s">
         <v>143</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>144</v>
       </c>
-      <c r="D94" t="s">
-        <v>145</v>
-      </c>
       <c r="E94">
-        <v>0.15</v>
+        <v>0.31</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>275</v>
+      </c>
+      <c r="I94" t="s">
+        <v>276</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>146</v>
       </c>
@@ -3450,76 +4269,97 @@
         <v>147</v>
       </c>
       <c r="D95" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95">
+        <v>0.54</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J95" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>148</v>
       </c>
-      <c r="E95">
-        <v>0.64</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="H95" s="4" t="s">
+      <c r="C96" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96">
+        <v>0.54</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="J96" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>149</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97">
+        <v>0.54</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J97" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>150</v>
       </c>
-      <c r="D96" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96">
-        <v>0.31</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>152</v>
-      </c>
-      <c r="C97" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97">
-        <v>0.31</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>153</v>
-      </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E98">
         <v>0.54</v>
@@ -3527,22 +4367,29 @@
       <c r="F98">
         <v>1</v>
       </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H98" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J98" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E99">
         <v>0.54</v>
@@ -3550,22 +4397,29 @@
       <c r="F99">
         <v>1</v>
       </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H99" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J99" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E100">
         <v>0.54</v>
@@ -3573,22 +4427,29 @@
       <c r="F100">
         <v>1</v>
       </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H100" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J100" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E101">
         <v>0.54</v>
@@ -3596,22 +4457,29 @@
       <c r="F101">
         <v>1</v>
       </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H101" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J101" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E102">
         <v>0.54</v>
@@ -3619,22 +4487,29 @@
       <c r="F102">
         <v>1</v>
       </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H102" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J102" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C103" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E103">
         <v>0.54</v>
@@ -3642,22 +4517,29 @@
       <c r="F103">
         <v>1</v>
       </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H103" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E104">
         <v>0.54</v>
@@ -3665,22 +4547,29 @@
       <c r="F104">
         <v>1</v>
       </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H104" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C105" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E105">
         <v>0.54</v>
@@ -3688,22 +4577,29 @@
       <c r="F105">
         <v>1</v>
       </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H105" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C106" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E106">
         <v>0.54</v>
@@ -3711,22 +4607,29 @@
       <c r="F106">
         <v>1</v>
       </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H106" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D107" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E107">
         <v>0.54</v>
@@ -3734,137 +4637,179 @@
       <c r="F107">
         <v>1</v>
       </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H107" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108">
+        <v>0.15</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109">
+        <v>0.15</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110">
+        <v>0.15</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>165</v>
       </c>
-      <c r="C108" t="s">
-        <v>164</v>
-      </c>
-      <c r="D108" t="s">
-        <v>151</v>
-      </c>
-      <c r="E108">
+      <c r="C111" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111">
         <v>0.54</v>
       </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>166</v>
       </c>
-      <c r="C109" t="s">
-        <v>164</v>
-      </c>
-      <c r="D109" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109">
+      <c r="C112" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112">
         <v>0.54</v>
       </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>167</v>
-      </c>
-      <c r="C110" t="s">
-        <v>164</v>
-      </c>
-      <c r="D110" t="s">
-        <v>151</v>
-      </c>
-      <c r="E110">
-        <v>0.54</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>168</v>
       </c>
-      <c r="C111" t="s">
-        <v>169</v>
-      </c>
-      <c r="D111" t="s">
-        <v>151</v>
-      </c>
-      <c r="E111">
-        <v>0.15</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>170</v>
-      </c>
-      <c r="C112" t="s">
-        <v>169</v>
-      </c>
-      <c r="D112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E112">
-        <v>0.15</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>171</v>
-      </c>
       <c r="C113" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E113">
         <v>0.15</v>
@@ -3872,68 +4817,89 @@
       <c r="F113">
         <v>1</v>
       </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H113" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>172</v>
-      </c>
-      <c r="C114" t="s">
-        <v>164</v>
+        <v>169</v>
+      </c>
+      <c r="C114">
+        <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E114">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H114" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>173</v>
-      </c>
-      <c r="C115" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="C115">
+        <v>100</v>
       </c>
       <c r="D115" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E115">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H115" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>175</v>
-      </c>
-      <c r="C116" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E116">
         <v>0.15</v>
@@ -3941,22 +4907,29 @@
       <c r="F116">
         <v>1</v>
       </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H116" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C117">
         <v>100</v>
       </c>
       <c r="D117" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E117">
         <v>0.15</v>
@@ -3964,22 +4937,29 @@
       <c r="F117">
         <v>1</v>
       </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H117" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C118">
         <v>100</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E118">
         <v>0.15</v>
@@ -3987,481 +4967,688 @@
       <c r="F118">
         <v>1</v>
       </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H118" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" t="s">
+        <v>261</v>
+      </c>
+      <c r="D119" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119">
+        <v>0.2</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>174</v>
+      </c>
+      <c r="C120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D120" t="s">
+        <v>176</v>
+      </c>
+      <c r="E120">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" t="s">
         <v>178</v>
       </c>
-      <c r="C119">
-        <v>100</v>
-      </c>
-      <c r="D119" t="s">
-        <v>151</v>
-      </c>
-      <c r="E119">
-        <v>0.15</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+      <c r="D121" t="s">
         <v>179</v>
       </c>
-      <c r="C120">
-        <v>100</v>
-      </c>
-      <c r="D120" t="s">
-        <v>151</v>
-      </c>
-      <c r="E120">
-        <v>0.15</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+      <c r="E121">
+        <v>0.92</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>180</v>
       </c>
-      <c r="C121">
-        <v>100</v>
-      </c>
-      <c r="D121" t="s">
-        <v>151</v>
-      </c>
-      <c r="E121">
-        <v>0.15</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+      <c r="C122" t="s">
+        <v>178</v>
+      </c>
+      <c r="D122" t="s">
+        <v>179</v>
+      </c>
+      <c r="E122">
+        <v>0.92</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>181</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123" t="s">
+        <v>179</v>
+      </c>
+      <c r="E123">
+        <v>0.92</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>182</v>
       </c>
-      <c r="D122" t="s">
+      <c r="C124" t="s">
+        <v>178</v>
+      </c>
+      <c r="D124" t="s">
+        <v>179</v>
+      </c>
+      <c r="E124">
+        <v>0.92</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>183</v>
       </c>
-      <c r="E122">
-        <v>2.46</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="I122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+      <c r="C125" t="s">
+        <v>178</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125">
+        <v>0.92</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>184</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C126" t="s">
+        <v>178</v>
+      </c>
+      <c r="D126" t="s">
+        <v>179</v>
+      </c>
+      <c r="E126">
+        <v>0.92</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>185</v>
       </c>
-      <c r="D123" t="s">
+      <c r="C127" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" t="s">
+        <v>179</v>
+      </c>
+      <c r="E127">
+        <v>0.92</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>186</v>
       </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="C128" t="s">
+        <v>178</v>
+      </c>
+      <c r="D128" t="s">
+        <v>179</v>
+      </c>
+      <c r="E128">
+        <v>0.92</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C129" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129">
+        <v>0.92</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>188</v>
       </c>
-      <c r="D124" t="s">
+      <c r="C130" t="s">
         <v>189</v>
       </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+      <c r="D130" t="s">
         <v>190</v>
       </c>
-      <c r="C125" t="s">
-        <v>188</v>
-      </c>
-      <c r="D125" t="s">
-        <v>189</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+      <c r="E130">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>296</v>
+      </c>
+      <c r="I130" t="s">
+        <v>297</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>191</v>
       </c>
-      <c r="C126" t="s">
-        <v>188</v>
-      </c>
-      <c r="D126" t="s">
-        <v>189</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="C131" t="s">
         <v>192</v>
       </c>
-      <c r="C127" t="s">
-        <v>188</v>
-      </c>
-      <c r="D127" t="s">
-        <v>189</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+      <c r="D131" t="s">
         <v>193</v>
       </c>
-      <c r="C128" t="s">
-        <v>188</v>
-      </c>
-      <c r="D128" t="s">
-        <v>189</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+      <c r="E131">
+        <v>1.01</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G136" si="2">1-F131</f>
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>322</v>
+      </c>
+      <c r="I131" t="s">
+        <v>323</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>194</v>
       </c>
-      <c r="C129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D129" t="s">
-        <v>189</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+      <c r="C132" t="s">
         <v>195</v>
       </c>
-      <c r="C130" t="s">
-        <v>188</v>
-      </c>
-      <c r="D130" t="s">
-        <v>189</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+      <c r="D132" t="s">
+        <v>141</v>
+      </c>
+      <c r="E132">
+        <v>1.56</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>316</v>
+      </c>
+      <c r="I132" t="s">
+        <v>317</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>196</v>
       </c>
-      <c r="C131" t="s">
-        <v>188</v>
-      </c>
-      <c r="D131" t="s">
-        <v>189</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+      <c r="C133" t="s">
+        <v>192</v>
+      </c>
+      <c r="D133" t="s">
+        <v>193</v>
+      </c>
+      <c r="E133">
+        <v>1.01</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>322</v>
+      </c>
+      <c r="I133" t="s">
+        <v>323</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>197</v>
       </c>
-      <c r="C132" t="s">
-        <v>188</v>
-      </c>
-      <c r="D132" t="s">
-        <v>189</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+      <c r="C134" t="s">
         <v>198</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D134" t="s">
         <v>199</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E134">
+        <v>6.88</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>309</v>
+      </c>
+      <c r="I134" t="s">
+        <v>310</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>200</v>
       </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+      <c r="C135" t="s">
+        <v>201</v>
+      </c>
+      <c r="D135" t="s">
         <v>202</v>
       </c>
-      <c r="C134" t="s">
-        <v>203</v>
-      </c>
-      <c r="D134" t="s">
-        <v>204</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>205</v>
-      </c>
-      <c r="C135" t="s">
-        <v>206</v>
-      </c>
-      <c r="D135" t="s">
-        <v>148</v>
+      <c r="E135">
+        <v>0.47</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>281</v>
+      </c>
       <c r="I135" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="C136" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="D136" t="s">
-        <v>204</v>
+        <v>301</v>
+      </c>
+      <c r="E136">
+        <v>1.38</v>
       </c>
       <c r="F136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>303</v>
+      </c>
+      <c r="I136" t="s">
+        <v>304</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
         <v>209</v>
       </c>
-      <c r="C137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D137" t="s">
-        <v>211</v>
+      <c r="E137">
+        <f>SUM(E2:E136)</f>
+        <v>69.249999999999986</v>
       </c>
       <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="I137" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>213</v>
-      </c>
-      <c r="C138" t="s">
-        <v>214</v>
-      </c>
-      <c r="D138" t="s">
-        <v>215</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>209</v>
-      </c>
-      <c r="C139" t="s">
-        <v>210</v>
-      </c>
-      <c r="D139" t="s">
-        <v>211</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="I139" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>213</v>
-      </c>
-      <c r="C140" t="s">
-        <v>214</v>
-      </c>
-      <c r="D140" t="s">
-        <v>215</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="I140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
-        <v>223</v>
-      </c>
-      <c r="F141" s="1">
-        <f>SUM(F2:F140)</f>
-        <v>110</v>
-      </c>
-      <c r="G141" s="2">
-        <f>SUM(G2:G140)</f>
-        <v>22</v>
-      </c>
+        <f>SUM(F2:F136)</f>
+        <v>107</v>
+      </c>
+      <c r="G137">
+        <f>SUM(G2:G136)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F141" s="1"/>
       <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I141" xr:uid="{2888EFAC-D6A8-4D00-B0B5-B91EFB7BCAAD}"/>
+  <autoFilter ref="B1:J141" xr:uid="{2888EFAC-D6A8-4D00-B0B5-B91EFB7BCAAD}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{C9D3F8CB-9835-4A55-9E16-B1E3A89CC9D6}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{D8FA7C13-BE4B-46B7-A1B9-39E2B2EB8736}"/>
-    <hyperlink ref="I11" r:id="rId3" xr:uid="{96B16BA4-2C52-40CE-AAE7-81860D194569}"/>
-    <hyperlink ref="I12" r:id="rId4" display="https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10B105MO8NNWC/1276-6524-1-ND/5961383" xr:uid="{C1CBE272-B25C-4FCD-8DD2-C0BC073427D9}"/>
-    <hyperlink ref="I13" r:id="rId5" xr:uid="{00270009-FA5F-42ED-ACA1-54EBBE556B90}"/>
-    <hyperlink ref="I14" r:id="rId6" display="https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686" xr:uid="{44F33AA3-3689-4A2D-B8C9-574F9FBBE9B7}"/>
-    <hyperlink ref="I15" r:id="rId7" xr:uid="{E3C14E1C-36C0-4EA3-8279-16C894A0CC12}"/>
-    <hyperlink ref="I16" r:id="rId8" display="https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10B105MO8NNWC/1276-6524-1-ND/5961383" xr:uid="{9FD3DC1C-8FF2-4AD1-97C7-B4439C2AD4AE}"/>
-    <hyperlink ref="I17" r:id="rId9" xr:uid="{5F5A3F1B-99C3-4CDD-B201-A2A83E0202B5}"/>
-    <hyperlink ref="I18" r:id="rId10" xr:uid="{CB6BB4ED-3DB9-4360-B1CB-B79F82291A0B}"/>
-    <hyperlink ref="I19" r:id="rId11" xr:uid="{7EFB9279-60E9-43E4-A5C2-A81E4E70BCA6}"/>
-    <hyperlink ref="I20" r:id="rId12" xr:uid="{6575199B-F753-4600-8049-C79681E2A1EE}"/>
-    <hyperlink ref="I21" r:id="rId13" xr:uid="{DCF95F46-215C-4981-AD6A-3A16FE88E198}"/>
-    <hyperlink ref="I23" r:id="rId14" xr:uid="{548CE689-EB24-4EED-9E64-792CAC6160AF}"/>
-    <hyperlink ref="I25" r:id="rId15" xr:uid="{EADF9BF5-4F44-489C-B7C0-381D474C4CDA}"/>
-    <hyperlink ref="I27" r:id="rId16" xr:uid="{14F39EAA-CBCA-4EFF-8C1A-D85D43578432}"/>
-    <hyperlink ref="I22" r:id="rId17" xr:uid="{504F755F-1A4E-4CA8-8B70-9BE9A1FBC230}"/>
-    <hyperlink ref="I24" r:id="rId18" xr:uid="{F9FDF4C3-3E9C-4D43-ADEE-A0D11AC72BC6}"/>
-    <hyperlink ref="I31" r:id="rId19" xr:uid="{5ACE1956-488E-423B-99F6-A2B4D2C125C7}"/>
-    <hyperlink ref="I34" r:id="rId20" xr:uid="{2A7FCAE1-7085-406E-A734-657659D745DC}"/>
-    <hyperlink ref="I39" r:id="rId21" xr:uid="{28B045DA-84A4-4862-BDA7-1A2C91EC30D2}"/>
-    <hyperlink ref="I42" r:id="rId22" xr:uid="{3F9015DB-EB3F-48AA-B85A-3F269DF9CA2A}"/>
-    <hyperlink ref="I48" r:id="rId23" xr:uid="{CD44B6CC-1075-43A5-9CF5-82E18560ECB1}"/>
-    <hyperlink ref="I52" r:id="rId24" xr:uid="{ACE45632-8898-47CA-8F2F-F0122AF747B0}"/>
-    <hyperlink ref="I55" r:id="rId25" xr:uid="{ACA3D329-9A49-4A73-B64A-0E9E30D5EABB}"/>
-    <hyperlink ref="I56" r:id="rId26" xr:uid="{FD065339-833A-44B2-AECF-81A7C59593F6}"/>
-    <hyperlink ref="I58" r:id="rId27" xr:uid="{A5E10FCD-6517-4CAA-823B-221DAC7A9300}"/>
-    <hyperlink ref="I61" r:id="rId28" xr:uid="{2C4D13D7-F3DA-4DCC-A387-963E1C81FD5C}"/>
-    <hyperlink ref="I62" r:id="rId29" xr:uid="{88365AD5-D7FC-4B78-BE66-87F0380D3343}"/>
-    <hyperlink ref="I28" r:id="rId30" xr:uid="{3E451B43-ECAE-466C-9851-73734173C676}"/>
-    <hyperlink ref="I30" r:id="rId31" xr:uid="{B7952714-EAF3-4C3B-99BF-01346122223D}"/>
-    <hyperlink ref="I44" r:id="rId32" xr:uid="{E281FF95-097C-41A5-970A-A6B39AB1792B}"/>
-    <hyperlink ref="I46" r:id="rId33" xr:uid="{CB37F02A-2913-43CD-B48D-F8D543D22241}"/>
-    <hyperlink ref="I33" r:id="rId34" xr:uid="{CB59E6A7-C379-4DE2-8F6F-00DF95755BB1}"/>
-    <hyperlink ref="I35" r:id="rId35" xr:uid="{1C2B8664-E272-486E-AC7B-61B1CD870FAD}"/>
-    <hyperlink ref="I37" r:id="rId36" xr:uid="{BF865157-399A-4D11-A528-48F6BB485719}"/>
-    <hyperlink ref="I40" r:id="rId37" xr:uid="{62813FBA-B301-437F-BB42-75B0D562AEAC}"/>
-    <hyperlink ref="I49" r:id="rId38" xr:uid="{9E51BC92-DD80-495D-BAB7-5C524C482C07}"/>
-    <hyperlink ref="I51" r:id="rId39" xr:uid="{28A09D14-171A-45D0-A65E-5D7FCEC7DC3A}"/>
-    <hyperlink ref="I59" r:id="rId40" xr:uid="{ADDD2C61-7194-4E5F-B6F9-2D7F6D0E5110}"/>
-    <hyperlink ref="I60" r:id="rId41" xr:uid="{B59DB87E-E1E1-41CD-B16D-85636EA8CB2D}"/>
-    <hyperlink ref="I36" r:id="rId42" xr:uid="{96BC2C27-5B7C-46BD-9C66-6B660534E56B}"/>
-    <hyperlink ref="I38" r:id="rId43" xr:uid="{F32E7F0E-CC53-4E22-A361-08EBC26A73A2}"/>
-    <hyperlink ref="I50" r:id="rId44" xr:uid="{28F4B4E0-7DC7-4377-9AFE-67492F18DBA2}"/>
-    <hyperlink ref="I26" r:id="rId45" xr:uid="{E5DF4659-654F-405B-AF43-68930F226975}"/>
-    <hyperlink ref="I54" r:id="rId46" xr:uid="{76D2A769-9C4E-44A6-B86B-8095E8706C8F}"/>
-    <hyperlink ref="I29" r:id="rId47" xr:uid="{C4B283DF-81D2-441F-AE92-A224A12FA1B3}"/>
-    <hyperlink ref="I32" r:id="rId48" xr:uid="{9AB13F6B-8D52-490C-B8C6-14EA488DC147}"/>
-    <hyperlink ref="I41" r:id="rId49" xr:uid="{9E632B12-36D7-4E3D-A6D4-F46709BDDB1C}"/>
-    <hyperlink ref="I43" r:id="rId50" xr:uid="{62197F50-10CC-4059-B907-224572F17137}"/>
-    <hyperlink ref="I45" r:id="rId51" xr:uid="{93C8D15B-2B39-4CEE-A5FE-782A05AEDB78}"/>
-    <hyperlink ref="I47" r:id="rId52" xr:uid="{2D21121B-0DCE-401B-AD4E-31C18F723238}"/>
-    <hyperlink ref="I53" r:id="rId53" xr:uid="{9661A972-8840-4FEA-B9AA-9A8FD40FF6BF}"/>
-    <hyperlink ref="I57" r:id="rId54" xr:uid="{553B3254-50FF-4A06-813D-EACC65836A38}"/>
-    <hyperlink ref="I63" r:id="rId55" xr:uid="{5FEC176C-3E1F-43C5-ABD6-38028E9C2FB2}"/>
-    <hyperlink ref="I64" r:id="rId56" xr:uid="{94EC8478-0615-4FDB-82AA-182E23A20DFE}"/>
-    <hyperlink ref="I65" r:id="rId57" xr:uid="{D6CB39D3-A60E-4F16-9394-23E714451AA0}"/>
-    <hyperlink ref="I66" r:id="rId58" xr:uid="{C4F056D7-72FB-4767-B17D-01018F41A238}"/>
-    <hyperlink ref="I67" r:id="rId59" xr:uid="{E823642E-15CD-45D6-A346-46D895EAA3F2}"/>
-    <hyperlink ref="I68" r:id="rId60" xr:uid="{E6F8881C-BB8D-4402-B5CE-ABF588F86906}"/>
-    <hyperlink ref="I69" r:id="rId61" xr:uid="{B3AEA708-C435-4DD3-9432-859515FA561D}"/>
-    <hyperlink ref="I70" r:id="rId62" xr:uid="{2789E586-9CF9-4A6D-AD03-6BCD9E40D04C}"/>
-    <hyperlink ref="I71" r:id="rId63" xr:uid="{BD905C02-36D9-405D-A94A-8088D80FCFBB}"/>
-    <hyperlink ref="I72" r:id="rId64" xr:uid="{F86BAAF3-0B99-4812-8338-CCD28E32A6D1}"/>
-    <hyperlink ref="I73" r:id="rId65" xr:uid="{A603E42F-B982-4085-8227-5D2F835399F8}"/>
-    <hyperlink ref="I74" r:id="rId66" xr:uid="{6081ACE9-4AFA-4C9C-82E2-8A75A9B4E0E2}"/>
-    <hyperlink ref="I75" r:id="rId67" xr:uid="{B00A8129-BAB7-45CF-9A04-1EBA9A015546}"/>
-    <hyperlink ref="I76" r:id="rId68" xr:uid="{39562046-71CE-4CA8-80E3-C42BACC88A24}"/>
-    <hyperlink ref="I77" r:id="rId69" xr:uid="{425D9906-743C-4C33-B2B2-44069068C432}"/>
-    <hyperlink ref="I78" r:id="rId70" xr:uid="{61B02068-0F08-4433-A9E1-E8FD18F90944}"/>
-    <hyperlink ref="I79" r:id="rId71" xr:uid="{94278EF1-D04B-4C68-8AA8-47EF1E605EB5}"/>
-    <hyperlink ref="I82" r:id="rId72" xr:uid="{A222713E-F543-4758-9D4A-3024903F9EF7}"/>
-    <hyperlink ref="I83" r:id="rId73" xr:uid="{22CF936D-2456-40CE-AA7A-58C2BF2F54BF}"/>
-    <hyperlink ref="I84" r:id="rId74" xr:uid="{273DC6B0-D954-4156-B611-9F136EC12F0F}"/>
-    <hyperlink ref="I85" r:id="rId75" xr:uid="{82A0A1A6-F5B2-4F99-9B74-284371FDBE96}"/>
-    <hyperlink ref="I86" r:id="rId76" xr:uid="{7ABFADA7-5D28-4574-A561-974C35585E3B}"/>
-    <hyperlink ref="I87" r:id="rId77" xr:uid="{72CB1605-B82F-4822-BE33-44FA3BED6866}"/>
-    <hyperlink ref="I94" r:id="rId78" xr:uid="{D8DBBEEF-9ECE-4E9F-A181-F50686D7A81F}"/>
-    <hyperlink ref="I95" r:id="rId79" xr:uid="{3114121A-EE17-4A3C-860F-C1306B7825F6}"/>
-    <hyperlink ref="I117" r:id="rId80" xr:uid="{C663E484-7963-429F-9FCF-36C78B76F5AE}"/>
-    <hyperlink ref="I118" r:id="rId81" xr:uid="{7029E19B-6A6F-4AEE-9B2A-FF349489EFB8}"/>
-    <hyperlink ref="I119" r:id="rId82" xr:uid="{538CFC8A-EFA0-4ED1-9E6F-385277D54D04}"/>
-    <hyperlink ref="I120" r:id="rId83" xr:uid="{AAAE7011-2BEE-4EAF-9E23-3E071699730E}"/>
-    <hyperlink ref="I121" r:id="rId84" xr:uid="{413831FF-0C67-4F33-B969-B4D5A0ED6C33}"/>
-    <hyperlink ref="I96" r:id="rId85" xr:uid="{9ECFF031-D703-4A55-ABAA-FED3FEDF68E6}"/>
-    <hyperlink ref="I97" r:id="rId86" xr:uid="{6EF18282-552C-475E-AB1B-04CFFC3D28D5}"/>
-    <hyperlink ref="I111" r:id="rId87" xr:uid="{1797B226-2B08-4157-8774-186034BF501E}"/>
-    <hyperlink ref="I112:I113" r:id="rId88" display="https://www.digikey.com.au/product-detail/en/rohm-semiconductor/ESR03EZPJ102/RHM1.0KDCT-ND/1762924" xr:uid="{FA405D91-580F-44C9-9A6C-098E3A09E749}"/>
-    <hyperlink ref="I116" r:id="rId89" xr:uid="{A5134415-086F-4FC1-8395-7C7951C06E59}"/>
-    <hyperlink ref="I98" r:id="rId90" xr:uid="{A93996A8-E740-47F0-A997-A5EF79E9200D}"/>
-    <hyperlink ref="I99:I106" r:id="rId91" display="https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB224V/P220KDBCT-ND/1466108" xr:uid="{DEEC2066-E748-4A20-93BB-7A37AB6A2E08}"/>
-    <hyperlink ref="I115" r:id="rId92" xr:uid="{28EB6713-650E-44A7-95BB-FF82F3E4BADC}"/>
-    <hyperlink ref="I107" r:id="rId93" xr:uid="{B5D588E8-34E2-41E0-A573-0D2AEE64524E}"/>
-    <hyperlink ref="I108:I110" r:id="rId94" display="https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB333V/P33KDBCT-ND/1466088" xr:uid="{E1FCA4EA-B313-4172-873A-744258ED6D61}"/>
-    <hyperlink ref="I114" r:id="rId95" xr:uid="{AC33C888-67B9-4206-9AE7-2F05582377A0}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{3C74238B-0066-4B8A-AEB1-D29EECF60D17}"/>
+    <hyperlink ref="J114" r:id="rId2" xr:uid="{C4775CC6-F7F7-4D26-9AF9-9B0D33B38B34}"/>
+    <hyperlink ref="J115" r:id="rId3" xr:uid="{8871B2EB-8B98-4E26-9F46-EEC5181F9826}"/>
+    <hyperlink ref="J116" r:id="rId4" xr:uid="{144379D9-0178-40FC-AEEA-D4A0D422A97B}"/>
+    <hyperlink ref="J117" r:id="rId5" xr:uid="{08450D6A-6C90-442D-9CDD-69A5739A16FC}"/>
+    <hyperlink ref="J118" r:id="rId6" xr:uid="{1F334B8A-2ADA-4BBE-8916-7A751AA635DB}"/>
+    <hyperlink ref="J80" r:id="rId7" xr:uid="{502E05E1-4EFF-4F64-A068-F2297DFEE846}"/>
+    <hyperlink ref="J13" r:id="rId8" xr:uid="{8F4B0EC1-7FD6-4C3B-B4FC-433714EBCEF5}"/>
+    <hyperlink ref="J14" r:id="rId9" xr:uid="{7616E604-F694-41CA-9149-552D4B5D4DEA}"/>
+    <hyperlink ref="J17" r:id="rId10" xr:uid="{94805F71-9A61-40F1-B660-057BD0A7B7AA}"/>
+    <hyperlink ref="J22" r:id="rId11" xr:uid="{707416BE-14E9-4358-891F-47F5373DF371}"/>
+    <hyperlink ref="J119" r:id="rId12" xr:uid="{213CD312-1A42-458B-9761-E5C4501EFA92}"/>
+    <hyperlink ref="J24" r:id="rId13" xr:uid="{96FC9C39-F008-42B8-974B-03A7893E9F1C}"/>
+    <hyperlink ref="J31" r:id="rId14" xr:uid="{B04FA0C0-96FF-427C-8B20-E3DD0572647D}"/>
+    <hyperlink ref="J34" r:id="rId15" xr:uid="{4F900F98-544D-4FD7-B1D5-8508BA103495}"/>
+    <hyperlink ref="J39" r:id="rId16" xr:uid="{555F9DCD-3185-48E2-BF93-2C2140A7EB56}"/>
+    <hyperlink ref="J42" r:id="rId17" xr:uid="{D2CC6F59-98CB-420F-931B-303964E1577E}"/>
+    <hyperlink ref="J48" r:id="rId18" xr:uid="{668A386E-86ED-4C8D-8DC1-8E701F695C8E}"/>
+    <hyperlink ref="J52" r:id="rId19" xr:uid="{48687AA8-8BE2-4B32-B30C-92E3319376CC}"/>
+    <hyperlink ref="J55:J56" r:id="rId20" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686" xr:uid="{2FBBCFC1-5C8F-4FE9-A184-04F9AF93B855}"/>
+    <hyperlink ref="J58" r:id="rId21" xr:uid="{CD8DE433-BE9A-4160-8EA1-12853858C602}"/>
+    <hyperlink ref="J61:J62" r:id="rId22" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686" xr:uid="{5300F2F9-B84F-4FD8-8A31-4698409E8D7E}"/>
+    <hyperlink ref="J18" r:id="rId23" xr:uid="{FCC345F7-ADA3-481B-89CB-BCC6F1599CA0}"/>
+    <hyperlink ref="J28" r:id="rId24" xr:uid="{3399A5C9-5E1A-4061-9D85-8B823C731826}"/>
+    <hyperlink ref="J30" r:id="rId25" xr:uid="{B68A39B4-820C-4263-8AAB-45D5EC3B9AA1}"/>
+    <hyperlink ref="J44" r:id="rId26" xr:uid="{8EB591A6-6201-4773-8DFB-AA51DF0396A3}"/>
+    <hyperlink ref="J46" r:id="rId27" xr:uid="{6E2B0E1B-9D9D-49EA-B2DD-6690739A0CE6}"/>
+    <hyperlink ref="J93" r:id="rId28" xr:uid="{A963E66D-9D8F-42A5-BB83-382A9ABE7792}"/>
+    <hyperlink ref="J94" r:id="rId29" xr:uid="{0AE56F4D-009C-47E7-8CC3-0504C0433546}"/>
+    <hyperlink ref="J33" r:id="rId30" xr:uid="{F1F18E5A-0116-45EE-883D-7FBC340E45D6}"/>
+    <hyperlink ref="J35" r:id="rId31" xr:uid="{93112C0E-B2AE-4677-8F93-21EB3104E989}"/>
+    <hyperlink ref="J37" r:id="rId32" xr:uid="{71056D82-BC45-4165-9467-7D59EC605511}"/>
+    <hyperlink ref="J40" r:id="rId33" xr:uid="{DA799955-7851-4453-9475-9F03B332A025}"/>
+    <hyperlink ref="J49" r:id="rId34" xr:uid="{347FDDE7-F455-4118-9939-D9A041166411}"/>
+    <hyperlink ref="J51" r:id="rId35" xr:uid="{8EA255BC-361B-4318-9ACB-0400C20015A4}"/>
+    <hyperlink ref="J59" r:id="rId36" xr:uid="{60D431D1-44EF-4D42-AB94-9D2D79786D50}"/>
+    <hyperlink ref="J60" r:id="rId37" xr:uid="{B72B1747-F70D-4B83-AE2D-7728AC02BFA1}"/>
+    <hyperlink ref="J29" r:id="rId38" xr:uid="{54F40F13-5A90-47E6-B70B-58E81F651F27}"/>
+    <hyperlink ref="J32" r:id="rId39" xr:uid="{B83E7A74-76E9-4DCC-8D74-7951688B2E3C}"/>
+    <hyperlink ref="J41" r:id="rId40" xr:uid="{FE6817CD-5B8F-46E3-8A66-26D35B10B069}"/>
+    <hyperlink ref="J43" r:id="rId41" xr:uid="{75561F5C-7373-4F91-BFA4-0B131409EA93}"/>
+    <hyperlink ref="J45" r:id="rId42" xr:uid="{79664B19-BFEA-4151-9E1D-05F0408DF815}"/>
+    <hyperlink ref="J47" r:id="rId43" xr:uid="{7CA5037D-F0EA-4EF6-BEEE-261C50D0475E}"/>
+    <hyperlink ref="J53" r:id="rId44" xr:uid="{AF633B2D-841E-4B81-8218-E275F1F04175}"/>
+    <hyperlink ref="J57" r:id="rId45" xr:uid="{955698CB-1FF5-455D-92A8-BEA24FF5CDBB}"/>
+    <hyperlink ref="J63" r:id="rId46" xr:uid="{A67CFCCD-D2B6-4C4A-99E9-00FDA1A985FD}"/>
+    <hyperlink ref="J64" r:id="rId47" xr:uid="{574B4ECF-9C30-47B2-BECF-B07F130B7189}"/>
+    <hyperlink ref="J135" r:id="rId48" xr:uid="{CFAC8EDE-75DC-4784-8C56-D95DADB17612}"/>
+    <hyperlink ref="J108" r:id="rId49" xr:uid="{51E6DC37-A798-4E17-B65A-B7A0CCEA3D45}"/>
+    <hyperlink ref="J109:J110" r:id="rId50" display="https://www.digikey.com.au/product-detail/en/rohm-semiconductor/ESR03EZPJ102/RHM1.0KDCT-ND/1762924" xr:uid="{535C6EDE-6023-45B1-BAD3-7A412A904036}"/>
+    <hyperlink ref="J113" r:id="rId51" xr:uid="{7CD3B455-9585-4C31-ADBF-C701A6FF97DD}"/>
+    <hyperlink ref="J36" r:id="rId52" xr:uid="{7334BD5A-D083-4C83-AD02-3E2141E534D0}"/>
+    <hyperlink ref="J38" r:id="rId53" xr:uid="{0DC7824C-5581-473F-A7C9-DE0AF4A3663C}"/>
+    <hyperlink ref="J50" r:id="rId54" xr:uid="{43C24BD8-201F-4F12-ADB2-3D67A0A75330}"/>
+    <hyperlink ref="J11" r:id="rId55" xr:uid="{66EC55A1-88BD-4C0D-A950-85C7C298FB96}"/>
+    <hyperlink ref="J12" r:id="rId56" xr:uid="{E02EE65C-2E04-4A6C-835F-8383981D759A}"/>
+    <hyperlink ref="J15" r:id="rId57" xr:uid="{9ED5F6AF-DF5E-4160-98B4-D36CE9042F9A}"/>
+    <hyperlink ref="J16" r:id="rId58" xr:uid="{FB19AD89-6FD3-4109-A683-1CB664A4FFEB}"/>
+    <hyperlink ref="J19" r:id="rId59" xr:uid="{FD1D0F04-76E9-4BAA-900B-6099124B8EFE}"/>
+    <hyperlink ref="J20" r:id="rId60" xr:uid="{26CAF54C-4B5F-475B-9896-73F5D0EBF278}"/>
+    <hyperlink ref="J21" r:id="rId61" xr:uid="{295EE29E-BE3C-4A51-BE73-F3FDCD333BBF}"/>
+    <hyperlink ref="J23" r:id="rId62" xr:uid="{7FF98525-2743-412A-B677-90F9DFA538C5}"/>
+    <hyperlink ref="J25" r:id="rId63" xr:uid="{F5E3E06F-CF4E-4C80-8C7A-16EC69C2A3E4}"/>
+    <hyperlink ref="J27" r:id="rId64" xr:uid="{6DE9B813-9997-448A-83B6-AD2F8F2673D9}"/>
+    <hyperlink ref="J3" r:id="rId65" xr:uid="{48D075FC-85D5-4CC9-9100-28F0864F63C8}"/>
+    <hyperlink ref="J4:J10" r:id="rId66" display="https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587390" xr:uid="{D79BF2FF-A531-4D44-87B7-1C095DAEE41C}"/>
+    <hyperlink ref="J112" r:id="rId67" xr:uid="{04BF73C9-80FD-4D88-BD51-E1A03A551FF8}"/>
+    <hyperlink ref="J104" r:id="rId68" xr:uid="{3F84D211-36F1-48B4-A3A7-3C5F8A22D38A}"/>
+    <hyperlink ref="J105:J107" r:id="rId69" display="https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB333V/P33KDBCT-ND/1466088" xr:uid="{8AE685A8-BE9F-48B8-9BF3-69880439F947}"/>
+    <hyperlink ref="J111" r:id="rId70" xr:uid="{1C466925-450A-4955-B13F-A8065D53492E}"/>
+    <hyperlink ref="J26" r:id="rId71" xr:uid="{FFE4F8FC-A053-4D56-AEA8-3AFF49586068}"/>
+    <hyperlink ref="J54" r:id="rId72" xr:uid="{EFEBFBF3-6034-4374-BC61-CAADD88F78B1}"/>
+    <hyperlink ref="J65" r:id="rId73" xr:uid="{501D4173-39A3-47BE-85CF-6FB929BF204E}"/>
+    <hyperlink ref="J130" r:id="rId74" xr:uid="{D90FDDCD-17EF-4607-BFBE-E8B38C24CA5C}"/>
+    <hyperlink ref="J83" r:id="rId75" xr:uid="{881299D8-5328-4B76-BD67-710FEA304701}"/>
+    <hyperlink ref="J69" r:id="rId76" xr:uid="{FC4345A9-EABE-4BEA-B2BC-40F425B95311}"/>
+    <hyperlink ref="J74" r:id="rId77" xr:uid="{29ED1314-B047-432B-9E7B-9D0736AF9B97}"/>
+    <hyperlink ref="J136" r:id="rId78" xr:uid="{BBCD2134-0CFE-4CD7-9F4B-B514DE02029A}"/>
+    <hyperlink ref="J76" r:id="rId79" xr:uid="{25436A23-659C-453A-8EB7-1FC1A1677C46}"/>
+    <hyperlink ref="J92" r:id="rId80" xr:uid="{DA40EECB-3690-4F4D-ADAB-CF63858D9018}"/>
+    <hyperlink ref="J84" r:id="rId81" xr:uid="{24B61F73-2E1B-4DF4-BA2C-8712E153DCEF}"/>
+    <hyperlink ref="J134" r:id="rId82" xr:uid="{1A93F527-2175-4461-80B9-30D62AA8DCBF}"/>
+    <hyperlink ref="J77" r:id="rId83" xr:uid="{9133F2D7-56D9-4BAE-BA51-F5D21E051751}"/>
+    <hyperlink ref="J78" r:id="rId84" xr:uid="{EBB21B6E-A303-41C5-AE77-1AE3CEE04B6E}"/>
+    <hyperlink ref="J132" r:id="rId85" xr:uid="{3C4A89DD-E551-4268-BF1D-B52EDB383EC8}"/>
+    <hyperlink ref="J67" r:id="rId86" xr:uid="{D92E4694-6897-45E6-9666-CDCC6209C341}"/>
+    <hyperlink ref="J71" r:id="rId87" xr:uid="{85756740-3B87-407B-9330-D0967E7DC997}"/>
+    <hyperlink ref="J70" r:id="rId88" xr:uid="{AF9C332C-F5E6-48FD-ADD6-A38FC9FBBCA6}"/>
+    <hyperlink ref="J66" r:id="rId89" xr:uid="{3C1CF0E8-D119-485C-A7D6-E5F681330B5D}"/>
+    <hyperlink ref="J68" r:id="rId90" xr:uid="{E3E7C24E-1076-4198-8E5D-DBABAAF76A4E}"/>
+    <hyperlink ref="J131" r:id="rId91" xr:uid="{C98EF5A3-016D-41BF-81E2-AA39C9C25D7B}"/>
+    <hyperlink ref="J133" r:id="rId92" xr:uid="{7A3B41CC-5A4A-4F77-BC35-A771AD8039A2}"/>
+    <hyperlink ref="J73" r:id="rId93" xr:uid="{C08C7879-2D4B-4BE4-B62C-35FB57886C3B}"/>
+    <hyperlink ref="J82" r:id="rId94" xr:uid="{89064C43-B765-4AC9-ABE3-B2AA24E2A49D}"/>
+    <hyperlink ref="J81" r:id="rId95" xr:uid="{9C00FD80-39FB-4F58-BD34-E9BE0F8BFF2F}"/>
+    <hyperlink ref="J120" r:id="rId96" xr:uid="{A2BF6C02-8631-467C-9E1D-73C719C1D3A4}"/>
+    <hyperlink ref="J121" r:id="rId97" xr:uid="{EF457A25-C41A-4D5C-8A97-008FEB94AC47}"/>
+    <hyperlink ref="J122:J129" r:id="rId98" display="https://www.digikey.com.au/product-detail/en/e-switch/EG1218/EG1903-ND/101726" xr:uid="{51A24A01-0467-49D2-B133-2747748A6D5A}"/>
+    <hyperlink ref="J91" r:id="rId99" xr:uid="{1693405C-7361-44FD-9CF8-1AC62ADB6A89}"/>
+    <hyperlink ref="J75" r:id="rId100" xr:uid="{0B779E16-4435-4A64-98ED-05038A59C555}"/>
+    <hyperlink ref="J79" r:id="rId101" xr:uid="{E50E5329-C5FB-40D5-9C6E-944931AB7FB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId96"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId102"/>
 </worksheet>
 </file>
--- a/Hardware/Electronics/Data Acquisition Board/DAQ Board/BoM.xlsx
+++ b/Hardware/Electronics/Data Acquisition Board/DAQ Board/BoM.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\trunk\Hardware\Electronics\Data Acquisition Board\DAQ Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\branches\new_eeg_connectors\Hardware\Electronics\Data Acquisition Board\DAQ Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692D9C0-957E-41F9-84E5-3FAA13C0059C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9FF004-59C9-4797-A1FD-7BFE197ECDFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2940" windowWidth="18900" windowHeight="11055" xr2:uid="{6508AD80-5785-495C-937B-5500FE895B69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6508AD80-5785-495C-937B-5500FE895B69}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pin Header" sheetId="1" r:id="rId1"/>
+    <sheet name="DIN Plug" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DIN Plug'!$B$1:$J$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin Header'!$B$1:$J$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="351">
   <si>
     <t xml:space="preserve">    ADC1</t>
   </si>
@@ -1047,6 +1049,48 @@
   </si>
   <si>
     <t>732-5960-1-ND</t>
+  </si>
+  <si>
+    <t>025101.5MAT1L</t>
+  </si>
+  <si>
+    <t>Conn_01x01_Male</t>
+  </si>
+  <si>
+    <t>Sparker:DIN 42802-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J19</t>
+  </si>
+  <si>
+    <t>Touch-protected Ø 1.5 mm Panelmounting Receptacles (DIN 42802)</t>
+  </si>
+  <si>
+    <t>409-3911</t>
+  </si>
+  <si>
+    <t>https://au.rs-online.com/web/p/banana-plugs-connectors/4093911/</t>
   </si>
 </sst>
 </file>
@@ -1435,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181FC57-BB23-449F-BF30-EC34F690F6DF}">
   <dimension ref="B1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView topLeftCell="A86" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5358,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G136" si="2">1-F131</f>
+        <f t="shared" ref="G131:G135" si="2">1-F131</f>
         <v>0</v>
       </c>
       <c r="H131" t="s">
@@ -5651,4 +5695,4446 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId102"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE20D855-7A6D-49D9-8684-28A19F146B00}">
+  <dimension ref="B1:J144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>1-F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0.69</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">1-F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0.69</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0.69</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0.69</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.69</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0.69</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0.69</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0.69</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0.15</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0.15</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0.15</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0.15</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0.15</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0.15</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0.15</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>1.48</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0.15</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0.15</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>0.15</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0.15</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0.15</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0.15</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>0.15</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>1.48</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0.15</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>1.48</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>0.15</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0.1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0.1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>0.1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>0.15</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>0.1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>0.15</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>1.48</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>0.15</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>1.48</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>0.15</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>0.1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>0.1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>0.1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>0.15</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>0.1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>0.1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>0.1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>0.15</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>0.1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59">
+        <v>0.1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>0.1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <v>0.1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>0.1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>0.15</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>0.15</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65">
+        <v>0.44</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66">
+        <v>0.45</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G75" si="1">1-F67</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68">
+        <v>0.45</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69">
+        <v>0.34</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72">
+        <v>0.94</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73">
+        <v>0.72</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>338</v>
+      </c>
+      <c r="D74" t="s">
+        <v>339</v>
+      </c>
+      <c r="E74">
+        <f>15.71/2</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>348</v>
+      </c>
+      <c r="I74" t="s">
+        <v>349</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75">
+        <v>3.38</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>340</v>
+      </c>
+      <c r="C76" t="s">
+        <v>338</v>
+      </c>
+      <c r="D76" t="s">
+        <v>339</v>
+      </c>
+      <c r="E76">
+        <f>15.71/2</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ref="G76:G80" si="2">1-F76</f>
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>348</v>
+      </c>
+      <c r="I76" t="s">
+        <v>349</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77">
+        <v>2.08</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78">
+        <v>1.01</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79">
+        <v>0.66</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" t="s">
+        <v>338</v>
+      </c>
+      <c r="D81" t="s">
+        <v>339</v>
+      </c>
+      <c r="E81">
+        <f>15.71/2</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ref="G81:G83" si="3">1-F81</f>
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>348</v>
+      </c>
+      <c r="I81" t="s">
+        <v>349</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>342</v>
+      </c>
+      <c r="C82" t="s">
+        <v>338</v>
+      </c>
+      <c r="D82" t="s">
+        <v>339</v>
+      </c>
+      <c r="E82">
+        <f>15.71/2</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>348</v>
+      </c>
+      <c r="I82" t="s">
+        <v>349</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>343</v>
+      </c>
+      <c r="C84" t="s">
+        <v>338</v>
+      </c>
+      <c r="D84" t="s">
+        <v>339</v>
+      </c>
+      <c r="E84">
+        <f>15.71/2</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ref="G84:G85" si="4">1-F84</f>
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>348</v>
+      </c>
+      <c r="I84" t="s">
+        <v>349</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>344</v>
+      </c>
+      <c r="C86" t="s">
+        <v>338</v>
+      </c>
+      <c r="D86" t="s">
+        <v>339</v>
+      </c>
+      <c r="E86">
+        <f>15.71/2</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:G89" si="5">1-F86</f>
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>348</v>
+      </c>
+      <c r="I86" t="s">
+        <v>349</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" t="s">
+        <v>338</v>
+      </c>
+      <c r="D90" t="s">
+        <v>339</v>
+      </c>
+      <c r="E90">
+        <f>15.71/2</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ref="G90:G92" si="6">1-F90</f>
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>348</v>
+      </c>
+      <c r="I90" t="s">
+        <v>349</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>346</v>
+      </c>
+      <c r="C91" t="s">
+        <v>338</v>
+      </c>
+      <c r="D91" t="s">
+        <v>339</v>
+      </c>
+      <c r="E91">
+        <f>15.71/2</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>348</v>
+      </c>
+      <c r="I91" t="s">
+        <v>349</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>347</v>
+      </c>
+      <c r="C92" t="s">
+        <v>338</v>
+      </c>
+      <c r="D92" t="s">
+        <v>339</v>
+      </c>
+      <c r="E92">
+        <f>15.71/2</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>348</v>
+      </c>
+      <c r="I92" t="s">
+        <v>349</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J94" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J95" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" t="s">
+        <v>132</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I96" t="s">
+        <v>301</v>
+      </c>
+      <c r="J96" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I97" t="s">
+        <v>301</v>
+      </c>
+      <c r="J97" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I98" t="s">
+        <v>301</v>
+      </c>
+      <c r="J98" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99">
+        <v>0.15</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ref="G99:G143" si="7">1-F99</f>
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>248</v>
+      </c>
+      <c r="I99" t="s">
+        <v>335</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100">
+        <v>0.42</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>306</v>
+      </c>
+      <c r="I100" t="s">
+        <v>307</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101">
+        <v>0.31</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>275</v>
+      </c>
+      <c r="I101" t="s">
+        <v>276</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102">
+        <v>0.31</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>275</v>
+      </c>
+      <c r="I102" t="s">
+        <v>276</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103">
+        <v>0.54</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104">
+        <v>0.54</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105">
+        <v>0.54</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106">
+        <v>0.54</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J106" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107">
+        <v>0.54</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J107" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108">
+        <v>0.54</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J108" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" t="s">
+        <v>147</v>
+      </c>
+      <c r="D109" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109">
+        <v>0.54</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J109" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110">
+        <v>0.54</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J110" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>155</v>
+      </c>
+      <c r="C111" t="s">
+        <v>147</v>
+      </c>
+      <c r="D111" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111">
+        <v>0.54</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J111" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112">
+        <v>0.54</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113">
+        <v>0.54</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114">
+        <v>0.54</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115">
+        <v>0.54</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116">
+        <v>0.15</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" t="s">
+        <v>144</v>
+      </c>
+      <c r="E117">
+        <v>0.15</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118">
+        <v>0.15</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" t="s">
+        <v>157</v>
+      </c>
+      <c r="D119" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119">
+        <v>0.54</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120">
+        <v>0.54</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121">
+        <v>0.15</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122">
+        <v>0.15</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>170</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+      <c r="D123" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123">
+        <v>0.15</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>171</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="D124" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124">
+        <v>0.15</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125">
+        <v>100</v>
+      </c>
+      <c r="D125" t="s">
+        <v>144</v>
+      </c>
+      <c r="E125">
+        <v>0.15</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
+      <c r="D126" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126">
+        <v>0.15</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" t="s">
+        <v>261</v>
+      </c>
+      <c r="D127" t="s">
+        <v>144</v>
+      </c>
+      <c r="E127">
+        <v>0.2</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>174</v>
+      </c>
+      <c r="C128" t="s">
+        <v>175</v>
+      </c>
+      <c r="D128" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129">
+        <v>0.92</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130" t="s">
+        <v>179</v>
+      </c>
+      <c r="E130">
+        <v>0.92</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" t="s">
+        <v>178</v>
+      </c>
+      <c r="D131" t="s">
+        <v>179</v>
+      </c>
+      <c r="E131">
+        <v>0.92</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>182</v>
+      </c>
+      <c r="C132" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" t="s">
+        <v>179</v>
+      </c>
+      <c r="E132">
+        <v>0.92</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>183</v>
+      </c>
+      <c r="C133" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" t="s">
+        <v>179</v>
+      </c>
+      <c r="E133">
+        <v>0.92</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" t="s">
+        <v>179</v>
+      </c>
+      <c r="E134">
+        <v>0.92</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>185</v>
+      </c>
+      <c r="C135" t="s">
+        <v>178</v>
+      </c>
+      <c r="D135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E135">
+        <v>0.92</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>186</v>
+      </c>
+      <c r="C136" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" t="s">
+        <v>179</v>
+      </c>
+      <c r="E136">
+        <v>0.92</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>187</v>
+      </c>
+      <c r="C137" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137" t="s">
+        <v>179</v>
+      </c>
+      <c r="E137">
+        <v>0.92</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>188</v>
+      </c>
+      <c r="C138" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138" t="s">
+        <v>190</v>
+      </c>
+      <c r="E138">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>296</v>
+      </c>
+      <c r="I138" t="s">
+        <v>297</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" t="s">
+        <v>192</v>
+      </c>
+      <c r="D139" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139">
+        <v>1.01</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>322</v>
+      </c>
+      <c r="I139" t="s">
+        <v>323</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>194</v>
+      </c>
+      <c r="C140" t="s">
+        <v>195</v>
+      </c>
+      <c r="D140" t="s">
+        <v>141</v>
+      </c>
+      <c r="E140">
+        <v>1.56</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>316</v>
+      </c>
+      <c r="I140" t="s">
+        <v>317</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>196</v>
+      </c>
+      <c r="C141" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" t="s">
+        <v>193</v>
+      </c>
+      <c r="E141">
+        <v>1.01</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>322</v>
+      </c>
+      <c r="I141" t="s">
+        <v>323</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" t="s">
+        <v>198</v>
+      </c>
+      <c r="D142" t="s">
+        <v>199</v>
+      </c>
+      <c r="E142">
+        <v>6.88</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>309</v>
+      </c>
+      <c r="I142" t="s">
+        <v>310</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>200</v>
+      </c>
+      <c r="C143" t="s">
+        <v>201</v>
+      </c>
+      <c r="D143" t="s">
+        <v>202</v>
+      </c>
+      <c r="E143">
+        <v>0.47</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>281</v>
+      </c>
+      <c r="I143" t="s">
+        <v>282</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>209</v>
+      </c>
+      <c r="E144">
+        <f>SUM(E2:E143)</f>
+        <v>135.98500000000024</v>
+      </c>
+      <c r="F144">
+        <f>SUM(F2:F143)</f>
+        <v>107</v>
+      </c>
+      <c r="G144">
+        <f>SUM(G2:G143)</f>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:J143" xr:uid="{CE158547-5956-43B4-9DB0-863AE35D9563}"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{5EA013DF-5025-4D3A-86F4-245C0D58D56B}"/>
+    <hyperlink ref="J13" r:id="rId2" xr:uid="{F2630A90-F529-4173-9F8C-EC05E8DFD43B}"/>
+    <hyperlink ref="J14" r:id="rId3" xr:uid="{D454E075-8F28-41FE-98B2-130498127ACE}"/>
+    <hyperlink ref="J17" r:id="rId4" xr:uid="{6168A8C9-1030-42BD-95EA-93A491E6CEA6}"/>
+    <hyperlink ref="J22" r:id="rId5" xr:uid="{E93FF713-6B7E-44E6-83E2-AF78D3D9EA8B}"/>
+    <hyperlink ref="J24" r:id="rId6" xr:uid="{5B6F83A2-041B-4D00-B89B-0C60C1FC0CC0}"/>
+    <hyperlink ref="J31" r:id="rId7" xr:uid="{9684D81D-102F-4BA3-8874-7B11D7C508E8}"/>
+    <hyperlink ref="J34" r:id="rId8" xr:uid="{05FE07A0-3BAC-4A88-B850-0EEF6A97DAC2}"/>
+    <hyperlink ref="J39" r:id="rId9" xr:uid="{9DFCB0D0-8470-4DD8-8746-AF98DC1F55B3}"/>
+    <hyperlink ref="J42" r:id="rId10" xr:uid="{352D5345-9062-478D-89E3-905B6DFF74CC}"/>
+    <hyperlink ref="J48" r:id="rId11" xr:uid="{41B37D24-3B17-49C0-8597-AD81242838D9}"/>
+    <hyperlink ref="J52" r:id="rId12" xr:uid="{7371029C-895B-417F-AD30-BBD1D673BB38}"/>
+    <hyperlink ref="J55:J56" r:id="rId13" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686" xr:uid="{C4488A79-25B5-4C78-A51E-5554CB8C1FAF}"/>
+    <hyperlink ref="J58" r:id="rId14" xr:uid="{D842B209-E9A2-4CD7-A81B-F2E46595A978}"/>
+    <hyperlink ref="J61:J62" r:id="rId15" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686" xr:uid="{5B475656-4267-4AF2-95AC-27C9BC62FC60}"/>
+    <hyperlink ref="J18" r:id="rId16" xr:uid="{DCA66436-5B2F-4BF9-B2C0-E2DB0A9D3439}"/>
+    <hyperlink ref="J28" r:id="rId17" xr:uid="{D0D27865-BDCB-4FD4-B3D0-C7213DD0B379}"/>
+    <hyperlink ref="J30" r:id="rId18" xr:uid="{7A36994D-FA65-4B62-B9CB-45DCBA3A34D8}"/>
+    <hyperlink ref="J44" r:id="rId19" xr:uid="{168F987E-A6F2-4FFA-AAFB-2D1AEC2C02FE}"/>
+    <hyperlink ref="J46" r:id="rId20" xr:uid="{31B5A436-6E3D-4EC6-81DC-4DB1CFEC956D}"/>
+    <hyperlink ref="J33" r:id="rId21" xr:uid="{3514A263-02AF-4791-A457-081749A67452}"/>
+    <hyperlink ref="J35" r:id="rId22" xr:uid="{D9A7AC85-A43A-4A02-B7CF-07BB289D9E03}"/>
+    <hyperlink ref="J37" r:id="rId23" xr:uid="{29C70E94-8C5E-433C-80E0-4D102BA24A41}"/>
+    <hyperlink ref="J40" r:id="rId24" xr:uid="{8902D439-559E-4CB2-A513-52A00347D9D0}"/>
+    <hyperlink ref="J49" r:id="rId25" xr:uid="{E7543271-BC02-46D4-AD7D-BFFF1DCC39A2}"/>
+    <hyperlink ref="J51" r:id="rId26" xr:uid="{B1868092-BF5B-47CB-8371-2B059C3BCE54}"/>
+    <hyperlink ref="J59" r:id="rId27" xr:uid="{85854835-23EE-40F7-B9E8-370A4DC78A71}"/>
+    <hyperlink ref="J60" r:id="rId28" xr:uid="{C771C594-99D6-44D7-8BA4-7DB91BDEF1E3}"/>
+    <hyperlink ref="J29" r:id="rId29" xr:uid="{843C1666-4D72-48C6-B088-3E642BAD64DD}"/>
+    <hyperlink ref="J32" r:id="rId30" xr:uid="{CBBC9036-D757-4FAD-9E98-9DB14FED7134}"/>
+    <hyperlink ref="J41" r:id="rId31" xr:uid="{BD587149-0FA7-4CDB-9343-BB16DBE2C3AF}"/>
+    <hyperlink ref="J43" r:id="rId32" xr:uid="{EEA04D88-00E4-4ED3-94FA-390A450A23AF}"/>
+    <hyperlink ref="J45" r:id="rId33" xr:uid="{F36957D7-5AC8-4C6B-BCEE-848CF928E310}"/>
+    <hyperlink ref="J47" r:id="rId34" xr:uid="{A1231B10-90EF-47C9-9A60-50DFA2F13673}"/>
+    <hyperlink ref="J53" r:id="rId35" xr:uid="{063AEDB3-4ED2-49F5-8C2F-5E0D9FB181C2}"/>
+    <hyperlink ref="J57" r:id="rId36" xr:uid="{607131E8-BC71-44FE-83EA-7719717F9F5A}"/>
+    <hyperlink ref="J63" r:id="rId37" xr:uid="{5DDD147B-2A62-471E-B6E8-41486BD1919A}"/>
+    <hyperlink ref="J64" r:id="rId38" xr:uid="{0DDCAA9E-1E6F-4EFF-A28B-59ED84AE045E}"/>
+    <hyperlink ref="J36" r:id="rId39" xr:uid="{371EEB5A-FADC-4D63-9F71-DD183F0A32CF}"/>
+    <hyperlink ref="J38" r:id="rId40" xr:uid="{71B80D1F-2583-4C30-9CFF-E85759BB17D4}"/>
+    <hyperlink ref="J50" r:id="rId41" xr:uid="{CBE8A59C-5FAC-4460-9E6E-05290ECCB0C3}"/>
+    <hyperlink ref="J11" r:id="rId42" xr:uid="{B5043856-83AE-4BE8-9D1C-DA630C54E6D3}"/>
+    <hyperlink ref="J12" r:id="rId43" xr:uid="{52DB0D3D-5365-44DB-ACE0-349AE3C018C7}"/>
+    <hyperlink ref="J15" r:id="rId44" xr:uid="{E4C4D8B0-56E3-40E5-8A79-A7E52D604B39}"/>
+    <hyperlink ref="J16" r:id="rId45" xr:uid="{B15F2F82-E323-46CA-AA77-E06D4CB8A0C7}"/>
+    <hyperlink ref="J19" r:id="rId46" xr:uid="{730CF91E-0ADF-467A-9252-3C57D67B0766}"/>
+    <hyperlink ref="J20" r:id="rId47" xr:uid="{2C53F1D9-D323-476C-9FCE-3E0C3C80BFE2}"/>
+    <hyperlink ref="J21" r:id="rId48" xr:uid="{D6A42A69-7035-416F-B371-706A4A8976B8}"/>
+    <hyperlink ref="J23" r:id="rId49" xr:uid="{2C01C4F5-B38B-4B79-9040-91235128900D}"/>
+    <hyperlink ref="J25" r:id="rId50" xr:uid="{6F43B388-8648-4B5F-8531-AB4CD2333F35}"/>
+    <hyperlink ref="J27" r:id="rId51" xr:uid="{FF3110B9-F1E0-4FB2-A897-BBC6E34BCEE6}"/>
+    <hyperlink ref="J3" r:id="rId52" xr:uid="{29FAD8D0-4B7A-4B1E-B92B-CF51B0098A4E}"/>
+    <hyperlink ref="J4:J10" r:id="rId53" display="https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587390" xr:uid="{FCC024C4-D7C5-4462-9300-A15752C79330}"/>
+    <hyperlink ref="J26" r:id="rId54" xr:uid="{E133E2D3-BA11-4945-A655-4AC267AA61E7}"/>
+    <hyperlink ref="J54" r:id="rId55" xr:uid="{879B63CC-43E2-4D1B-BA60-E4621C55AC9A}"/>
+    <hyperlink ref="J65" r:id="rId56" xr:uid="{ED9C68E9-2391-486E-AD4D-85457C3887D3}"/>
+    <hyperlink ref="J69" r:id="rId57" xr:uid="{EC3D2597-2EE7-4C45-96FC-464F13A7EBC5}"/>
+    <hyperlink ref="J67" r:id="rId58" xr:uid="{6EDCD678-3C49-4B32-B307-1FC2F524517A}"/>
+    <hyperlink ref="J71" r:id="rId59" xr:uid="{F4CE70F1-FB50-4DFA-9354-84160DBC3CF4}"/>
+    <hyperlink ref="J70" r:id="rId60" xr:uid="{62672493-A2E3-4869-A2CA-A313FDC0F93B}"/>
+    <hyperlink ref="J66" r:id="rId61" xr:uid="{AAC6F52F-9AF5-4C90-AB8D-9CD9C86E1A96}"/>
+    <hyperlink ref="J68" r:id="rId62" xr:uid="{62DD96F2-E96B-4B3F-80FB-38342C909086}"/>
+    <hyperlink ref="J73" r:id="rId63" xr:uid="{7485BAB3-7902-4855-9D03-64AFACAE4F34}"/>
+    <hyperlink ref="J74" r:id="rId64" xr:uid="{C1AD1F99-1747-42CE-A8B9-99899AD87F32}"/>
+    <hyperlink ref="J76" r:id="rId65" xr:uid="{8D702615-E93A-4B4E-B7FA-6AB89CCA4F01}"/>
+    <hyperlink ref="J81" r:id="rId66" xr:uid="{3D0F7606-CBD2-418B-A596-8E28F7178257}"/>
+    <hyperlink ref="J82" r:id="rId67" xr:uid="{3904FA96-D31D-4FA7-81AA-76DDBB10624A}"/>
+    <hyperlink ref="J84" r:id="rId68" xr:uid="{2634FAE3-972E-489C-8826-49ACF6A44E94}"/>
+    <hyperlink ref="J86" r:id="rId69" xr:uid="{A4EF224F-2BB0-4441-8E14-A20748C8C636}"/>
+    <hyperlink ref="J90" r:id="rId70" xr:uid="{4F26FA93-1097-4BC0-B709-969353F34BF7}"/>
+    <hyperlink ref="J91" r:id="rId71" xr:uid="{B738986F-89FB-497A-A1D5-0B831ACFDA24}"/>
+    <hyperlink ref="J92" r:id="rId72" xr:uid="{05309B13-8B9B-497B-916F-61B7EDCA2938}"/>
+    <hyperlink ref="J75" r:id="rId73" xr:uid="{B16ACE4A-0267-4EE8-9C2E-CF2727B59517}"/>
+    <hyperlink ref="J77" r:id="rId74" xr:uid="{942EB330-8093-4946-AC9F-C462CBBD41DC}"/>
+    <hyperlink ref="J78" r:id="rId75" xr:uid="{9F1FB097-60F7-47D7-8D6B-DFE51C6BD438}"/>
+    <hyperlink ref="J79" r:id="rId76" xr:uid="{424DB34A-CE58-4C8B-8873-37089E57BA8E}"/>
+    <hyperlink ref="J80" r:id="rId77" xr:uid="{CE6FC4DF-9591-41A4-8B85-E1C786B1B48E}"/>
+    <hyperlink ref="J83" r:id="rId78" xr:uid="{B0A96171-BD78-4399-80C0-658FFD3BE485}"/>
+    <hyperlink ref="J85" r:id="rId79" xr:uid="{CE12A264-F7FB-44E3-86DC-6CCF626021B3}"/>
+    <hyperlink ref="J87" r:id="rId80" xr:uid="{9BF3F8AF-5ADD-4ABA-A722-9A16575AA8C5}"/>
+    <hyperlink ref="J88" r:id="rId81" xr:uid="{68D58D4A-BEB2-42E0-B725-FADD44A74112}"/>
+    <hyperlink ref="J89" r:id="rId82" xr:uid="{0E322A8D-7A55-493A-AD51-EADAAC9D4D69}"/>
+    <hyperlink ref="J122" r:id="rId83" xr:uid="{EB55E8E3-33E8-489C-AFE5-C678A9F22BF2}"/>
+    <hyperlink ref="J123" r:id="rId84" xr:uid="{76587BB5-DFDE-42AD-BF65-DFEFBA7DB2FF}"/>
+    <hyperlink ref="J124" r:id="rId85" xr:uid="{7B3623C0-D5AC-48E3-9042-2FD832BF87C5}"/>
+    <hyperlink ref="J125" r:id="rId86" xr:uid="{FC439B08-2B1E-45EE-8EC6-92DC8360CC8A}"/>
+    <hyperlink ref="J126" r:id="rId87" xr:uid="{46B6FD12-8D6B-42ED-B80A-26A654155845}"/>
+    <hyperlink ref="J127" r:id="rId88" xr:uid="{03CD8E95-BDA8-43FA-BBCF-E428BB14A0BE}"/>
+    <hyperlink ref="J101" r:id="rId89" xr:uid="{F7B955E8-2949-4FF9-AD1D-3DABF68B9C4B}"/>
+    <hyperlink ref="J102" r:id="rId90" xr:uid="{5C2063D6-D3F3-4FCB-BBD8-928E7203898B}"/>
+    <hyperlink ref="J143" r:id="rId91" xr:uid="{F709EA28-A786-4ED0-B098-20149103B05F}"/>
+    <hyperlink ref="J116" r:id="rId92" xr:uid="{826633BA-8197-415E-922C-A0D4376A6609}"/>
+    <hyperlink ref="J117:J118" r:id="rId93" display="https://www.digikey.com.au/product-detail/en/rohm-semiconductor/ESR03EZPJ102/RHM1.0KDCT-ND/1762924" xr:uid="{82892D82-C7E7-42FC-80BB-B76F3FD6A4FF}"/>
+    <hyperlink ref="J121" r:id="rId94" xr:uid="{E6ADA4A4-CE7E-44DE-827E-7EA507EA4451}"/>
+    <hyperlink ref="J120" r:id="rId95" xr:uid="{EFA96FC7-281C-4638-B51F-97483BE1AABB}"/>
+    <hyperlink ref="J112" r:id="rId96" xr:uid="{339B799A-D28F-410E-9546-7776DB8C8362}"/>
+    <hyperlink ref="J113:J115" r:id="rId97" display="https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB333V/P33KDBCT-ND/1466088" xr:uid="{E56E9347-5D96-4AD0-B374-701246DF8A60}"/>
+    <hyperlink ref="J119" r:id="rId98" xr:uid="{12BF7D40-DAE3-4079-9C5C-BE82AC6B3800}"/>
+    <hyperlink ref="J138" r:id="rId99" xr:uid="{DF237F30-8B9D-44A1-8065-445C9EDD645E}"/>
+    <hyperlink ref="J100" r:id="rId100" xr:uid="{81F98BCF-45CF-470D-AAC0-FA54620978B5}"/>
+    <hyperlink ref="J142" r:id="rId101" xr:uid="{0930A92F-60A4-4F9C-A139-7B5084BE60A4}"/>
+    <hyperlink ref="J140" r:id="rId102" xr:uid="{7BD85606-1D44-4028-9271-0EE83185E3C2}"/>
+    <hyperlink ref="J139" r:id="rId103" xr:uid="{8E364694-F831-4421-8361-5DADA5748A53}"/>
+    <hyperlink ref="J141" r:id="rId104" xr:uid="{8DF20DD2-76C3-497A-A723-755CA3C95223}"/>
+    <hyperlink ref="J128" r:id="rId105" xr:uid="{9FB63CCF-9614-4342-9045-5FFC757D7632}"/>
+    <hyperlink ref="J129" r:id="rId106" xr:uid="{B17AE4D3-FA97-42CE-A21F-9AFFAE81F0C1}"/>
+    <hyperlink ref="J130:J137" r:id="rId107" display="https://www.digikey.com.au/product-detail/en/e-switch/EG1218/EG1903-ND/101726" xr:uid="{7D6981AE-BD5B-4BA4-A3DB-C1A8FC6BF826}"/>
+    <hyperlink ref="J99" r:id="rId108" xr:uid="{849096B8-EDFA-4687-B694-44D350B26EE1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId109"/>
+</worksheet>
 </file>
--- a/Hardware/Electronics/Data Acquisition Board/DAQ Board/BoM.xlsx
+++ b/Hardware/Electronics/Data Acquisition Board/DAQ Board/BoM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\branches\new_eeg_connectors\Hardware\Electronics\Data Acquisition Board\DAQ Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\trunk\Hardware\Electronics\Data Acquisition Board\DAQ Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9FF004-59C9-4797-A1FD-7BFE197ECDFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708AAB3A-10F2-412E-8838-F3A31998DD5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6508AD80-5785-495C-937B-5500FE895B69}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DIN Plug" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DIN Plug'!$B$1:$J$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DIN Plug'!$B$1:$K$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin Header'!$B$1:$J$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="352">
   <si>
     <t xml:space="preserve">    ADC1</t>
   </si>
@@ -1091,6 +1091,9 @@
   </si>
   <si>
     <t>https://au.rs-online.com/web/p/banana-plugs-connectors/4093911/</t>
+  </si>
+  <si>
+    <t>In Box</t>
   </si>
 </sst>
 </file>
@@ -1132,12 +1135,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1153,7 +1162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1162,12 +1171,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5699,10 +5727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE20D855-7A6D-49D9-8684-28A19F146B00}">
-  <dimension ref="B1:J144"/>
+  <dimension ref="B1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5714,10 +5742,10 @@
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="72.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="111" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>203</v>
       </c>
@@ -5745,280 +5773,289 @@
       <c r="J1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>1-F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">1-F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="J3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="J4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E5">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="I5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E6">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="I6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E7">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="I7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>0.69</v>
+        <v>0.15</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>1-F8</f>
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>0.69</v>
+        <v>0.15</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>1-F9</f>
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>0.69</v>
+        <v>0.15</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>1-F10</f>
         <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -6030,25 +6067,26 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>1-F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -6060,25 +6098,26 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>1-F12</f>
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -6090,25 +6129,26 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>1-F13</f>
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -6120,25 +6160,26 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>1-F14</f>
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -6150,25 +6191,26 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>1-F15</f>
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -6180,25 +6222,26 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>1-F16</f>
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -6210,82 +6253,85 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>1-F17</f>
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>1.48</v>
+        <v>0.1</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f>1-F18</f>
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>1-F19</f>
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -6300,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f>1-F20</f>
         <v>0</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -6312,10 +6358,11 @@
       <c r="J20" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -6330,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f>1-F21</f>
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -6342,13 +6389,14 @@
       <c r="J21" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -6360,22 +6408,23 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f>1-F22</f>
         <v>0</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -6390,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f>1-F23</f>
         <v>0</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -6402,40 +6451,42 @@
       <c r="J23" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f>1-F24</f>
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -6450,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f>1-F25</f>
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -6462,40 +6513,42 @@
       <c r="J25" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f>1-F26</f>
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -6510,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f>1-F27</f>
         <v>0</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -6522,43 +6575,45 @@
       <c r="J27" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f>1-F28</f>
         <v>0</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -6570,67 +6625,69 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f>1-F29</f>
         <v>0</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f>1-F30</f>
         <v>0</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f>1-F31</f>
         <v>0</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -6640,15 +6697,16 @@
         <v>266</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -6660,52 +6718,54 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f>1-F32</f>
         <v>0</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f>1-F33</f>
         <v>0</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -6720,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f>1-F34</f>
         <v>0</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -6732,13 +6792,14 @@
       <c r="J34" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -6750,25 +6811,26 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f>1-F35</f>
         <v>0</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -6780,25 +6842,26 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f>1-F36</f>
         <v>0</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -6810,25 +6873,26 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f>1-F37</f>
         <v>0</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -6840,22 +6904,23 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f>1-F38</f>
         <v>0</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>32</v>
@@ -6870,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f>1-F39</f>
         <v>0</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -6882,13 +6947,14 @@
       <c r="J39" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -6900,52 +6966,54 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f>1-F40</f>
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f>1-F41</f>
         <v>0</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
@@ -6960,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f>1-F42</f>
         <v>0</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -6972,283 +7040,293 @@
       <c r="J42" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f>1-F43</f>
         <v>0</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>1.48</v>
+        <v>0.1</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f>1-F44</f>
         <v>0</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f>1-F45</f>
         <v>0</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E46">
-        <v>1.48</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f>1-F46</f>
         <v>0</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E47">
-        <v>0.15</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f>1-F47</f>
         <v>0</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E48">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f>1-F48</f>
         <v>0</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E49">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f>1-F49</f>
         <v>0</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50">
+        <v>0.45</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f>1-F50</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51">
+        <v>0.44</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f>1-F51</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
         <v>48</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50">
-        <v>0.1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51">
-        <v>0.1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -7260,55 +7338,57 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f>1-F52</f>
         <v>0</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f>1-F53</f>
         <v>0</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -7320,1947 +7400,2019 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f>1-F54</f>
         <v>0</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="E55">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>266</v>
+        <f>1-F55</f>
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>275</v>
+      </c>
+      <c r="I55" t="s">
+        <v>276</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="E56">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>266</v>
+        <f>1-F56</f>
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>275</v>
+      </c>
+      <c r="I56" t="s">
+        <v>276</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c r="E57">
-        <v>0.15</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58">
-        <v>0.1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59">
-        <v>0.1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60">
-        <v>0.1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61">
-        <v>0.1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62">
-        <v>0.1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63">
-        <v>0.15</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>259</v>
-      </c>
-      <c r="C64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>0.15</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65">
-        <v>0.44</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66">
-        <v>0.45</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G75" si="1">1-F67</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68">
-        <v>0.45</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69">
-        <v>0.34</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" t="s">
-        <v>337</v>
-      </c>
-      <c r="D72" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72">
-        <v>0.94</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J72" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73">
-        <v>0.72</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" t="s">
-        <v>338</v>
-      </c>
-      <c r="D74" t="s">
-        <v>339</v>
-      </c>
-      <c r="E74">
         <f>15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>1-F57</f>
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
         <v>348</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I57" t="s">
         <v>349</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" t="s">
-        <v>101</v>
-      </c>
-      <c r="E75">
-        <v>3.38</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>340</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C58" t="s">
         <v>338</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D58" t="s">
         <v>339</v>
       </c>
-      <c r="E76">
+      <c r="E58">
         <f>15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <f t="shared" ref="G76:G80" si="2">1-F76</f>
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>1-F58</f>
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
         <v>348</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I58" t="s">
         <v>349</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77">
-        <v>2.08</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78">
-        <v>1.01</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79">
-        <v>0.66</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>341</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C59" t="s">
         <v>338</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D59" t="s">
         <v>339</v>
       </c>
-      <c r="E81">
+      <c r="E59">
         <f>15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <f t="shared" ref="G81:G83" si="3">1-F81</f>
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>1-F59</f>
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>348</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I59" t="s">
         <v>349</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>342</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C60" t="s">
         <v>338</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D60" t="s">
         <v>339</v>
       </c>
-      <c r="E82">
+      <c r="E60">
         <f>15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f>1-F60</f>
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>348</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I60" t="s">
         <v>349</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" t="s">
-        <v>102</v>
-      </c>
-      <c r="E83">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>343</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C61" t="s">
         <v>338</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D61" t="s">
         <v>339</v>
       </c>
-      <c r="E84">
+      <c r="E61">
         <f>15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <f t="shared" ref="G84:G85" si="4">1-F84</f>
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f>1-F61</f>
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
         <v>348</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I61" t="s">
         <v>349</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>344</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C62" t="s">
         <v>338</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D62" t="s">
         <v>339</v>
       </c>
-      <c r="E86">
+      <c r="E62">
         <f>15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <f t="shared" ref="G86:G89" si="5">1-F86</f>
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>1-F62</f>
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>348</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I62" t="s">
         <v>349</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" t="s">
-        <v>102</v>
-      </c>
-      <c r="E87">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>345</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C63" t="s">
         <v>338</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D63" t="s">
         <v>339</v>
       </c>
-      <c r="E90">
+      <c r="E63">
         <f>15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <f t="shared" ref="G90:G92" si="6">1-F90</f>
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f>1-F63</f>
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
         <v>348</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I63" t="s">
         <v>349</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>346</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C64" t="s">
         <v>338</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D64" t="s">
         <v>339</v>
       </c>
-      <c r="E91">
+      <c r="E64">
         <f>15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f>1-F64</f>
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
         <v>348</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I64" t="s">
         <v>349</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>347</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C65" t="s">
         <v>338</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D65" t="s">
         <v>339</v>
       </c>
-      <c r="E92">
+      <c r="E65">
         <f>15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f>1-F65</f>
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>348</v>
+      </c>
+      <c r="I65" t="s">
+        <v>349</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>0.1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f>1-F66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>0.1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f>1-F67</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>0.1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f>1-F68</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>0.1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f>1-F69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70">
+        <v>0.1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f>1-F70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>0.1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f>1-F71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>0.1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f>1-F72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>0.1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f>1-F73</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74">
+        <v>0.15</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f>1-F74</f>
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>248</v>
+      </c>
+      <c r="I74" t="s">
+        <v>335</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75">
+        <v>1.48</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f>1-F75</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>1.48</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f>1-F76</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>1.48</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f>1-F77</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>1.48</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f>1-F78</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79">
+        <v>1.48</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f>1-F79</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>0.69</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f>1-F80</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>0.69</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <f>1-F81</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>0.69</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <f>1-F82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>0.69</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <f>1-F83</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>0.69</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f>1-F84</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>0.69</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <f>1-F85</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>0.69</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <f>1-F86</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>0.69</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <f>1-F87</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88">
+        <v>0.47</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <f>1-F88</f>
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>281</v>
+      </c>
+      <c r="I88" t="s">
+        <v>282</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89">
+        <v>0.66</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f>1-F89</f>
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f>1-F90</f>
+        <v>1</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f>1-F91</f>
+        <v>1</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>348</v>
-      </c>
-      <c r="I92" t="s">
-        <v>349</v>
+        <f>1-F92</f>
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <f>1-F93</f>
+        <v>1</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J93" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <f>1-F94</f>
+        <v>1</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J94" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <f>1-F95</f>
+        <v>1</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J95" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
+        <f>1-F96</f>
         <v>0</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I96" t="s">
-        <v>301</v>
-      </c>
-      <c r="J96" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>6.88</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>327</v>
+        <f>1-F97</f>
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>309</v>
       </c>
       <c r="I97" t="s">
-        <v>301</v>
-      </c>
-      <c r="J97" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>327</v>
+        <f>1-F98</f>
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>296</v>
       </c>
       <c r="I98" t="s">
-        <v>301</v>
-      </c>
-      <c r="J98" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="E99">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <f t="shared" ref="G99:G143" si="7">1-F99</f>
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>248</v>
-      </c>
-      <c r="I99" t="s">
-        <v>335</v>
+        <f>1-F99</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100">
+        <v>2.08</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f>1-F100</f>
+        <v>1</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D101" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <f>1-F101</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>139</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>140</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>141</v>
       </c>
-      <c r="E100">
+      <c r="E102">
         <v>0.42</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <f>1-F102</f>
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
         <v>306</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I102" t="s">
         <v>307</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J102" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>142</v>
-      </c>
-      <c r="C101" t="s">
-        <v>143</v>
-      </c>
-      <c r="D101" t="s">
-        <v>144</v>
-      </c>
-      <c r="E101">
-        <v>0.31</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>275</v>
-      </c>
-      <c r="I101" t="s">
-        <v>276</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>145</v>
-      </c>
-      <c r="C102" t="s">
-        <v>143</v>
-      </c>
-      <c r="D102" t="s">
-        <v>144</v>
-      </c>
-      <c r="E102">
-        <v>0.31</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
-        <v>275</v>
-      </c>
-      <c r="I102" t="s">
-        <v>276</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E103">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F103</f>
+        <v>1</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J103" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D104" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E104">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F104</f>
+        <v>1</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J104" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D105" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E105">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F105</f>
+        <v>1</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J105" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E106">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F106</f>
+        <v>1</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J106" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D107" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E107">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F107</f>
+        <v>1</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J107" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D108" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E108">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F108</f>
+        <v>1</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J108" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D109" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E109">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F109</f>
+        <v>1</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J109" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C110" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D110" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E110">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F110</f>
+        <v>1</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J110" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C111" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E111">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F111</f>
+        <v>1</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J111" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="D112" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="E112">
-        <v>0.54</v>
+        <v>0.94</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F112</f>
+        <v>1</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J112" t="s">
+        <v>269</v>
+      </c>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D113" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E113">
-        <v>0.54</v>
+        <v>1.56</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>291</v>
+        <f>1-F113</f>
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>316</v>
+      </c>
+      <c r="I113" t="s">
+        <v>317</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D114" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E114">
-        <v>0.54</v>
+        <v>1.01</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>291</v>
+        <f>1-F114</f>
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>322</v>
+      </c>
+      <c r="I114" t="s">
+        <v>323</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C115" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E115">
-        <v>0.54</v>
+        <v>1.01</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>291</v>
+        <f>1-F115</f>
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>322</v>
+      </c>
+      <c r="I115" t="s">
+        <v>323</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="K115" s="6"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="E116">
-        <v>0.15</v>
+        <v>0.72</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
       <c r="G116">
-        <f t="shared" si="7"/>
+        <f>1-F116</f>
         <v>0</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
         <v>144</v>
       </c>
       <c r="E117">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
       <c r="G117">
-        <f t="shared" si="7"/>
+        <f>1-F117</f>
         <v>0</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D118" t="s">
         <v>144</v>
       </c>
       <c r="E118">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118">
-        <f t="shared" si="7"/>
+        <f>1-F118</f>
         <v>0</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="J118" t="s">
+        <v>288</v>
+      </c>
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D119" t="s">
         <v>144</v>
@@ -9272,25 +9424,26 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <f t="shared" si="7"/>
+        <f>1-F119</f>
         <v>0</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="J119" t="s">
+        <v>288</v>
+      </c>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D120" t="s">
         <v>144</v>
@@ -9302,716 +9455,736 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <f t="shared" si="7"/>
+        <f>1-F120</f>
         <v>0</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="J120" t="s">
+        <v>288</v>
+      </c>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C121" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D121" t="s">
         <v>144</v>
       </c>
       <c r="E121">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
       <c r="G121">
-        <f t="shared" si="7"/>
+        <f>1-F121</f>
         <v>0</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="J121" t="s">
+        <v>288</v>
+      </c>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>169</v>
-      </c>
-      <c r="C122">
-        <v>100</v>
+        <v>151</v>
+      </c>
+      <c r="C122" t="s">
+        <v>147</v>
       </c>
       <c r="D122" t="s">
         <v>144</v>
       </c>
       <c r="E122">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
       <c r="G122">
-        <f t="shared" si="7"/>
+        <f>1-F122</f>
         <v>0</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="J122" t="s">
+        <v>288</v>
+      </c>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>170</v>
-      </c>
-      <c r="C123">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="C123" t="s">
+        <v>147</v>
       </c>
       <c r="D123" t="s">
         <v>144</v>
       </c>
       <c r="E123">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
       <c r="G123">
-        <f t="shared" si="7"/>
+        <f>1-F123</f>
         <v>0</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="J123" t="s">
+        <v>288</v>
+      </c>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>171</v>
-      </c>
-      <c r="C124">
-        <v>100</v>
+        <v>153</v>
+      </c>
+      <c r="C124" t="s">
+        <v>147</v>
       </c>
       <c r="D124" t="s">
         <v>144</v>
       </c>
       <c r="E124">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
       <c r="G124">
-        <f t="shared" si="7"/>
+        <f>1-F124</f>
         <v>0</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="J124" t="s">
+        <v>288</v>
+      </c>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>172</v>
-      </c>
-      <c r="C125">
-        <v>100</v>
+        <v>154</v>
+      </c>
+      <c r="C125" t="s">
+        <v>147</v>
       </c>
       <c r="D125" t="s">
         <v>144</v>
       </c>
       <c r="E125">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
       <c r="G125">
-        <f t="shared" si="7"/>
+        <f>1-F125</f>
         <v>0</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="J125" t="s">
+        <v>288</v>
+      </c>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>173</v>
-      </c>
-      <c r="C126">
-        <v>100</v>
+        <v>155</v>
+      </c>
+      <c r="C126" t="s">
+        <v>147</v>
       </c>
       <c r="D126" t="s">
         <v>144</v>
       </c>
       <c r="E126">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
       <c r="G126">
-        <f t="shared" si="7"/>
+        <f>1-F126</f>
         <v>0</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="J126" t="s">
+        <v>288</v>
+      </c>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="C127" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="D127" t="s">
         <v>144</v>
       </c>
       <c r="E127">
+        <v>0.54</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <f>1-F127</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128" t="s">
+        <v>144</v>
+      </c>
+      <c r="E128">
+        <v>0.54</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <f>1-F128</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>159</v>
+      </c>
+      <c r="C129" t="s">
+        <v>157</v>
+      </c>
+      <c r="D129" t="s">
+        <v>144</v>
+      </c>
+      <c r="E129">
+        <v>0.54</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <f>1-F129</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" t="s">
+        <v>157</v>
+      </c>
+      <c r="D130" t="s">
+        <v>144</v>
+      </c>
+      <c r="E130">
+        <v>0.54</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <f>1-F130</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>165</v>
+      </c>
+      <c r="C131" t="s">
+        <v>157</v>
+      </c>
+      <c r="D131" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131">
+        <v>0.54</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <f>1-F131</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" t="s">
+        <v>162</v>
+      </c>
+      <c r="D132" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132">
+        <v>0.15</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <f>1-F132</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" t="s">
+        <v>144</v>
+      </c>
+      <c r="E133">
+        <v>0.15</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <f>1-F133</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>164</v>
+      </c>
+      <c r="C134" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" t="s">
+        <v>144</v>
+      </c>
+      <c r="E134">
+        <v>0.15</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <f>1-F134</f>
+        <v>0</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135">
+        <v>0.15</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <f>1-F135</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K135" s="6"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136">
+        <v>100</v>
+      </c>
+      <c r="D136" t="s">
+        <v>144</v>
+      </c>
+      <c r="E136">
+        <v>0.15</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <f>1-F136</f>
+        <v>0</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137">
+        <v>100</v>
+      </c>
+      <c r="D137" t="s">
+        <v>144</v>
+      </c>
+      <c r="E137">
+        <v>0.15</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <f>1-F137</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K137" s="6"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138">
+        <v>100</v>
+      </c>
+      <c r="D138" t="s">
+        <v>144</v>
+      </c>
+      <c r="E138">
+        <v>0.15</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <f>1-F138</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K138" s="6"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>172</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139" t="s">
+        <v>144</v>
+      </c>
+      <c r="E139">
+        <v>0.15</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <f>1-F139</f>
+        <v>0</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K139" s="6"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>173</v>
+      </c>
+      <c r="C140">
+        <v>100</v>
+      </c>
+      <c r="D140" t="s">
+        <v>144</v>
+      </c>
+      <c r="E140">
+        <v>0.15</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <f>1-F140</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K140" s="6"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C141" t="s">
+        <v>261</v>
+      </c>
+      <c r="D141" t="s">
+        <v>144</v>
+      </c>
+      <c r="E141">
         <v>0.2</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H127" s="4" t="s">
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f>1-F141</f>
+        <v>0</v>
+      </c>
+      <c r="H141" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I127" s="4" t="s">
+      <c r="I141" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J141" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>174</v>
-      </c>
-      <c r="C128" t="s">
-        <v>175</v>
-      </c>
-      <c r="D128" t="s">
-        <v>176</v>
-      </c>
-      <c r="E128">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>177</v>
-      </c>
-      <c r="C129" t="s">
-        <v>178</v>
-      </c>
-      <c r="D129" t="s">
-        <v>179</v>
-      </c>
-      <c r="E129">
-        <v>0.92</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>180</v>
-      </c>
-      <c r="C130" t="s">
-        <v>178</v>
-      </c>
-      <c r="D130" t="s">
-        <v>179</v>
-      </c>
-      <c r="E130">
-        <v>0.92</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>181</v>
-      </c>
-      <c r="C131" t="s">
-        <v>178</v>
-      </c>
-      <c r="D131" t="s">
-        <v>179</v>
-      </c>
-      <c r="E131">
-        <v>0.92</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>182</v>
-      </c>
-      <c r="C132" t="s">
-        <v>178</v>
-      </c>
-      <c r="D132" t="s">
-        <v>179</v>
-      </c>
-      <c r="E132">
-        <v>0.92</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I132" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>183</v>
-      </c>
-      <c r="C133" t="s">
-        <v>178</v>
-      </c>
-      <c r="D133" t="s">
-        <v>179</v>
-      </c>
-      <c r="E133">
-        <v>0.92</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>184</v>
-      </c>
-      <c r="C134" t="s">
-        <v>178</v>
-      </c>
-      <c r="D134" t="s">
-        <v>179</v>
-      </c>
-      <c r="E134">
-        <v>0.92</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>185</v>
-      </c>
-      <c r="C135" t="s">
-        <v>178</v>
-      </c>
-      <c r="D135" t="s">
-        <v>179</v>
-      </c>
-      <c r="E135">
-        <v>0.92</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>186</v>
-      </c>
-      <c r="C136" t="s">
-        <v>178</v>
-      </c>
-      <c r="D136" t="s">
-        <v>179</v>
-      </c>
-      <c r="E136">
-        <v>0.92</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C137" t="s">
-        <v>178</v>
-      </c>
-      <c r="D137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E137">
-        <v>0.92</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>188</v>
-      </c>
-      <c r="C138" t="s">
-        <v>189</v>
-      </c>
-      <c r="D138" t="s">
-        <v>190</v>
-      </c>
-      <c r="E138">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H138" t="s">
-        <v>296</v>
-      </c>
-      <c r="I138" t="s">
-        <v>297</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>191</v>
-      </c>
-      <c r="C139" t="s">
-        <v>192</v>
-      </c>
-      <c r="D139" t="s">
-        <v>193</v>
-      </c>
-      <c r="E139">
+      <c r="K141" s="6"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>106</v>
+      </c>
+      <c r="C142" t="s">
+        <v>107</v>
+      </c>
+      <c r="D142" t="s">
+        <v>108</v>
+      </c>
+      <c r="E142">
         <v>1.01</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H139" t="s">
-        <v>322</v>
-      </c>
-      <c r="I139" t="s">
-        <v>323</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>194</v>
-      </c>
-      <c r="C140" t="s">
-        <v>195</v>
-      </c>
-      <c r="D140" t="s">
-        <v>141</v>
-      </c>
-      <c r="E140">
-        <v>1.56</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H140" t="s">
-        <v>316</v>
-      </c>
-      <c r="I140" t="s">
-        <v>317</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" t="s">
-        <v>192</v>
-      </c>
-      <c r="D141" t="s">
-        <v>193</v>
-      </c>
-      <c r="E141">
-        <v>1.01</v>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H141" t="s">
-        <v>322</v>
-      </c>
-      <c r="I141" t="s">
-        <v>323</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>197</v>
-      </c>
-      <c r="C142" t="s">
-        <v>198</v>
-      </c>
-      <c r="D142" t="s">
-        <v>199</v>
-      </c>
-      <c r="E142">
-        <v>6.88</v>
-      </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H142" t="s">
-        <v>309</v>
-      </c>
-      <c r="I142" t="s">
-        <v>310</v>
+        <v>1</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="K142" s="6"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>1</v>
       </c>
       <c r="G143">
-        <f t="shared" si="7"/>
+        <f>1-F143</f>
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>281</v>
-      </c>
-      <c r="I143" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="K143" s="6"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>209</v>
       </c>
       <c r="E144">
         <f>SUM(E2:E143)</f>
-        <v>135.98500000000024</v>
+        <v>135.98500000000001</v>
       </c>
       <c r="F144">
         <f>SUM(F2:F143)</f>
@@ -10021,118 +10194,123 @@
         <f>SUM(G2:G143)</f>
         <v>29</v>
       </c>
+      <c r="K144" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J143" xr:uid="{CE158547-5956-43B4-9DB0-863AE35D9563}"/>
+  <autoFilter ref="B1:K144" xr:uid="{5E607A6A-E149-4D76-B4A2-B81B2BAF4324}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K144">
+      <sortCondition ref="I1:I144"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{5EA013DF-5025-4D3A-86F4-245C0D58D56B}"/>
-    <hyperlink ref="J13" r:id="rId2" xr:uid="{F2630A90-F529-4173-9F8C-EC05E8DFD43B}"/>
-    <hyperlink ref="J14" r:id="rId3" xr:uid="{D454E075-8F28-41FE-98B2-130498127ACE}"/>
-    <hyperlink ref="J17" r:id="rId4" xr:uid="{6168A8C9-1030-42BD-95EA-93A491E6CEA6}"/>
-    <hyperlink ref="J22" r:id="rId5" xr:uid="{E93FF713-6B7E-44E6-83E2-AF78D3D9EA8B}"/>
-    <hyperlink ref="J24" r:id="rId6" xr:uid="{5B6F83A2-041B-4D00-B89B-0C60C1FC0CC0}"/>
-    <hyperlink ref="J31" r:id="rId7" xr:uid="{9684D81D-102F-4BA3-8874-7B11D7C508E8}"/>
-    <hyperlink ref="J34" r:id="rId8" xr:uid="{05FE07A0-3BAC-4A88-B850-0EEF6A97DAC2}"/>
-    <hyperlink ref="J39" r:id="rId9" xr:uid="{9DFCB0D0-8470-4DD8-8746-AF98DC1F55B3}"/>
-    <hyperlink ref="J42" r:id="rId10" xr:uid="{352D5345-9062-478D-89E3-905B6DFF74CC}"/>
-    <hyperlink ref="J48" r:id="rId11" xr:uid="{41B37D24-3B17-49C0-8597-AD81242838D9}"/>
-    <hyperlink ref="J52" r:id="rId12" xr:uid="{7371029C-895B-417F-AD30-BBD1D673BB38}"/>
+    <hyperlink ref="J143" r:id="rId1" xr:uid="{5EA013DF-5025-4D3A-86F4-245C0D58D56B}"/>
+    <hyperlink ref="J30" r:id="rId2" xr:uid="{F2630A90-F529-4173-9F8C-EC05E8DFD43B}"/>
+    <hyperlink ref="J31" r:id="rId3" xr:uid="{D454E075-8F28-41FE-98B2-130498127ACE}"/>
+    <hyperlink ref="J32" r:id="rId4" xr:uid="{6168A8C9-1030-42BD-95EA-93A491E6CEA6}"/>
+    <hyperlink ref="J33" r:id="rId5" xr:uid="{E93FF713-6B7E-44E6-83E2-AF78D3D9EA8B}"/>
+    <hyperlink ref="J34" r:id="rId6" xr:uid="{5B6F83A2-041B-4D00-B89B-0C60C1FC0CC0}"/>
+    <hyperlink ref="J35" r:id="rId7" xr:uid="{9684D81D-102F-4BA3-8874-7B11D7C508E8}"/>
+    <hyperlink ref="J36" r:id="rId8" xr:uid="{05FE07A0-3BAC-4A88-B850-0EEF6A97DAC2}"/>
+    <hyperlink ref="J37" r:id="rId9" xr:uid="{9DFCB0D0-8470-4DD8-8746-AF98DC1F55B3}"/>
+    <hyperlink ref="J38" r:id="rId10" xr:uid="{352D5345-9062-478D-89E3-905B6DFF74CC}"/>
+    <hyperlink ref="J39" r:id="rId11" xr:uid="{41B37D24-3B17-49C0-8597-AD81242838D9}"/>
+    <hyperlink ref="J40" r:id="rId12" xr:uid="{7371029C-895B-417F-AD30-BBD1D673BB38}"/>
     <hyperlink ref="J55:J56" r:id="rId13" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686" xr:uid="{C4488A79-25B5-4C78-A51E-5554CB8C1FAF}"/>
-    <hyperlink ref="J58" r:id="rId14" xr:uid="{D842B209-E9A2-4CD7-A81B-F2E46595A978}"/>
+    <hyperlink ref="J43" r:id="rId14" xr:uid="{D842B209-E9A2-4CD7-A81B-F2E46595A978}"/>
     <hyperlink ref="J61:J62" r:id="rId15" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686" xr:uid="{5B475656-4267-4AF2-95AC-27C9BC62FC60}"/>
-    <hyperlink ref="J18" r:id="rId16" xr:uid="{DCA66436-5B2F-4BF9-B2C0-E2DB0A9D3439}"/>
-    <hyperlink ref="J28" r:id="rId17" xr:uid="{D0D27865-BDCB-4FD4-B3D0-C7213DD0B379}"/>
-    <hyperlink ref="J30" r:id="rId18" xr:uid="{7A36994D-FA65-4B62-B9CB-45DCBA3A34D8}"/>
-    <hyperlink ref="J44" r:id="rId19" xr:uid="{168F987E-A6F2-4FFA-AAFB-2D1AEC2C02FE}"/>
-    <hyperlink ref="J46" r:id="rId20" xr:uid="{31B5A436-6E3D-4EC6-81DC-4DB1CFEC956D}"/>
-    <hyperlink ref="J33" r:id="rId21" xr:uid="{3514A263-02AF-4791-A457-081749A67452}"/>
-    <hyperlink ref="J35" r:id="rId22" xr:uid="{D9A7AC85-A43A-4A02-B7CF-07BB289D9E03}"/>
-    <hyperlink ref="J37" r:id="rId23" xr:uid="{29C70E94-8C5E-433C-80E0-4D102BA24A41}"/>
-    <hyperlink ref="J40" r:id="rId24" xr:uid="{8902D439-559E-4CB2-A513-52A00347D9D0}"/>
-    <hyperlink ref="J49" r:id="rId25" xr:uid="{E7543271-BC02-46D4-AD7D-BFFF1DCC39A2}"/>
-    <hyperlink ref="J51" r:id="rId26" xr:uid="{B1868092-BF5B-47CB-8371-2B059C3BCE54}"/>
-    <hyperlink ref="J59" r:id="rId27" xr:uid="{85854835-23EE-40F7-B9E8-370A4DC78A71}"/>
-    <hyperlink ref="J60" r:id="rId28" xr:uid="{C771C594-99D6-44D7-8BA4-7DB91BDEF1E3}"/>
-    <hyperlink ref="J29" r:id="rId29" xr:uid="{843C1666-4D72-48C6-B088-3E642BAD64DD}"/>
-    <hyperlink ref="J32" r:id="rId30" xr:uid="{CBBC9036-D757-4FAD-9E98-9DB14FED7134}"/>
-    <hyperlink ref="J41" r:id="rId31" xr:uid="{BD587149-0FA7-4CDB-9343-BB16DBE2C3AF}"/>
-    <hyperlink ref="J43" r:id="rId32" xr:uid="{EEA04D88-00E4-4ED3-94FA-390A450A23AF}"/>
-    <hyperlink ref="J45" r:id="rId33" xr:uid="{F36957D7-5AC8-4C6B-BCEE-848CF928E310}"/>
-    <hyperlink ref="J47" r:id="rId34" xr:uid="{A1231B10-90EF-47C9-9A60-50DFA2F13673}"/>
-    <hyperlink ref="J53" r:id="rId35" xr:uid="{063AEDB3-4ED2-49F5-8C2F-5E0D9FB181C2}"/>
-    <hyperlink ref="J57" r:id="rId36" xr:uid="{607131E8-BC71-44FE-83EA-7719717F9F5A}"/>
-    <hyperlink ref="J63" r:id="rId37" xr:uid="{5DDD147B-2A62-471E-B6E8-41486BD1919A}"/>
-    <hyperlink ref="J64" r:id="rId38" xr:uid="{0DDCAA9E-1E6F-4EFF-A28B-59ED84AE045E}"/>
-    <hyperlink ref="J36" r:id="rId39" xr:uid="{371EEB5A-FADC-4D63-9F71-DD183F0A32CF}"/>
-    <hyperlink ref="J38" r:id="rId40" xr:uid="{71B80D1F-2583-4C30-9CFF-E85759BB17D4}"/>
-    <hyperlink ref="J50" r:id="rId41" xr:uid="{CBE8A59C-5FAC-4460-9E6E-05290ECCB0C3}"/>
-    <hyperlink ref="J11" r:id="rId42" xr:uid="{B5043856-83AE-4BE8-9D1C-DA630C54E6D3}"/>
-    <hyperlink ref="J12" r:id="rId43" xr:uid="{52DB0D3D-5365-44DB-ACE0-349AE3C018C7}"/>
-    <hyperlink ref="J15" r:id="rId44" xr:uid="{E4C4D8B0-56E3-40E5-8A79-A7E52D604B39}"/>
-    <hyperlink ref="J16" r:id="rId45" xr:uid="{B15F2F82-E323-46CA-AA77-E06D4CB8A0C7}"/>
-    <hyperlink ref="J19" r:id="rId46" xr:uid="{730CF91E-0ADF-467A-9252-3C57D67B0766}"/>
-    <hyperlink ref="J20" r:id="rId47" xr:uid="{2C53F1D9-D323-476C-9FCE-3E0C3C80BFE2}"/>
-    <hyperlink ref="J21" r:id="rId48" xr:uid="{D6A42A69-7035-416F-B371-706A4A8976B8}"/>
-    <hyperlink ref="J23" r:id="rId49" xr:uid="{2C01C4F5-B38B-4B79-9040-91235128900D}"/>
-    <hyperlink ref="J25" r:id="rId50" xr:uid="{6F43B388-8648-4B5F-8531-AB4CD2333F35}"/>
-    <hyperlink ref="J27" r:id="rId51" xr:uid="{FF3110B9-F1E0-4FB2-A897-BBC6E34BCEE6}"/>
-    <hyperlink ref="J3" r:id="rId52" xr:uid="{29FAD8D0-4B7A-4B1E-B92B-CF51B0098A4E}"/>
+    <hyperlink ref="J75" r:id="rId16" xr:uid="{DCA66436-5B2F-4BF9-B2C0-E2DB0A9D3439}"/>
+    <hyperlink ref="J76" r:id="rId17" xr:uid="{D0D27865-BDCB-4FD4-B3D0-C7213DD0B379}"/>
+    <hyperlink ref="J77" r:id="rId18" xr:uid="{7A36994D-FA65-4B62-B9CB-45DCBA3A34D8}"/>
+    <hyperlink ref="J78" r:id="rId19" xr:uid="{168F987E-A6F2-4FFA-AAFB-2D1AEC2C02FE}"/>
+    <hyperlink ref="J79" r:id="rId20" xr:uid="{31B5A436-6E3D-4EC6-81DC-4DB1CFEC956D}"/>
+    <hyperlink ref="J66" r:id="rId21" xr:uid="{3514A263-02AF-4791-A457-081749A67452}"/>
+    <hyperlink ref="J67" r:id="rId22" xr:uid="{D9A7AC85-A43A-4A02-B7CF-07BB289D9E03}"/>
+    <hyperlink ref="J68" r:id="rId23" xr:uid="{29C70E94-8C5E-433C-80E0-4D102BA24A41}"/>
+    <hyperlink ref="J69" r:id="rId24" xr:uid="{8902D439-559E-4CB2-A513-52A00347D9D0}"/>
+    <hyperlink ref="J70" r:id="rId25" xr:uid="{E7543271-BC02-46D4-AD7D-BFFF1DCC39A2}"/>
+    <hyperlink ref="J71" r:id="rId26" xr:uid="{B1868092-BF5B-47CB-8371-2B059C3BCE54}"/>
+    <hyperlink ref="J72" r:id="rId27" xr:uid="{85854835-23EE-40F7-B9E8-370A4DC78A71}"/>
+    <hyperlink ref="J73" r:id="rId28" xr:uid="{C771C594-99D6-44D7-8BA4-7DB91BDEF1E3}"/>
+    <hyperlink ref="J8" r:id="rId29" xr:uid="{843C1666-4D72-48C6-B088-3E642BAD64DD}"/>
+    <hyperlink ref="J9" r:id="rId30" xr:uid="{CBBC9036-D757-4FAD-9E98-9DB14FED7134}"/>
+    <hyperlink ref="J10" r:id="rId31" xr:uid="{BD587149-0FA7-4CDB-9343-BB16DBE2C3AF}"/>
+    <hyperlink ref="J11" r:id="rId32" xr:uid="{EEA04D88-00E4-4ED3-94FA-390A450A23AF}"/>
+    <hyperlink ref="J12" r:id="rId33" xr:uid="{F36957D7-5AC8-4C6B-BCEE-848CF928E310}"/>
+    <hyperlink ref="J13" r:id="rId34" xr:uid="{A1231B10-90EF-47C9-9A60-50DFA2F13673}"/>
+    <hyperlink ref="J14" r:id="rId35" xr:uid="{063AEDB3-4ED2-49F5-8C2F-5E0D9FB181C2}"/>
+    <hyperlink ref="J15" r:id="rId36" xr:uid="{607131E8-BC71-44FE-83EA-7719717F9F5A}"/>
+    <hyperlink ref="J16" r:id="rId37" xr:uid="{5DDD147B-2A62-471E-B6E8-41486BD1919A}"/>
+    <hyperlink ref="J17" r:id="rId38" xr:uid="{0DDCAA9E-1E6F-4EFF-A28B-59ED84AE045E}"/>
+    <hyperlink ref="J52" r:id="rId39" xr:uid="{371EEB5A-FADC-4D63-9F71-DD183F0A32CF}"/>
+    <hyperlink ref="J53" r:id="rId40" xr:uid="{71B80D1F-2583-4C30-9CFF-E85759BB17D4}"/>
+    <hyperlink ref="J54" r:id="rId41" xr:uid="{CBE8A59C-5FAC-4460-9E6E-05290ECCB0C3}"/>
+    <hyperlink ref="J20" r:id="rId42" xr:uid="{B5043856-83AE-4BE8-9D1C-DA630C54E6D3}"/>
+    <hyperlink ref="J21" r:id="rId43" xr:uid="{52DB0D3D-5365-44DB-ACE0-349AE3C018C7}"/>
+    <hyperlink ref="J22" r:id="rId44" xr:uid="{E4C4D8B0-56E3-40E5-8A79-A7E52D604B39}"/>
+    <hyperlink ref="J23" r:id="rId45" xr:uid="{B15F2F82-E323-46CA-AA77-E06D4CB8A0C7}"/>
+    <hyperlink ref="J24" r:id="rId46" xr:uid="{730CF91E-0ADF-467A-9252-3C57D67B0766}"/>
+    <hyperlink ref="J25" r:id="rId47" xr:uid="{2C53F1D9-D323-476C-9FCE-3E0C3C80BFE2}"/>
+    <hyperlink ref="J26" r:id="rId48" xr:uid="{D6A42A69-7035-416F-B371-706A4A8976B8}"/>
+    <hyperlink ref="J27" r:id="rId49" xr:uid="{2C01C4F5-B38B-4B79-9040-91235128900D}"/>
+    <hyperlink ref="J28" r:id="rId50" xr:uid="{6F43B388-8648-4B5F-8531-AB4CD2333F35}"/>
+    <hyperlink ref="J29" r:id="rId51" xr:uid="{FF3110B9-F1E0-4FB2-A897-BBC6E34BCEE6}"/>
+    <hyperlink ref="J80" r:id="rId52" xr:uid="{29FAD8D0-4B7A-4B1E-B92B-CF51B0098A4E}"/>
     <hyperlink ref="J4:J10" r:id="rId53" display="https://www.digikey.com.au/product-detail/en/murata-electronics/GRM21B5C1H223JA01L/490-1644-1-ND/587390" xr:uid="{FCC024C4-D7C5-4462-9300-A15752C79330}"/>
-    <hyperlink ref="J26" r:id="rId54" xr:uid="{E133E2D3-BA11-4945-A655-4AC267AA61E7}"/>
-    <hyperlink ref="J54" r:id="rId55" xr:uid="{879B63CC-43E2-4D1B-BA60-E4621C55AC9A}"/>
-    <hyperlink ref="J65" r:id="rId56" xr:uid="{ED9C68E9-2391-486E-AD4D-85457C3887D3}"/>
-    <hyperlink ref="J69" r:id="rId57" xr:uid="{EC3D2597-2EE7-4C45-96FC-464F13A7EBC5}"/>
-    <hyperlink ref="J67" r:id="rId58" xr:uid="{6EDCD678-3C49-4B32-B307-1FC2F524517A}"/>
-    <hyperlink ref="J71" r:id="rId59" xr:uid="{F4CE70F1-FB50-4DFA-9354-84160DBC3CF4}"/>
-    <hyperlink ref="J70" r:id="rId60" xr:uid="{62672493-A2E3-4869-A2CA-A313FDC0F93B}"/>
-    <hyperlink ref="J66" r:id="rId61" xr:uid="{AAC6F52F-9AF5-4C90-AB8D-9CD9C86E1A96}"/>
-    <hyperlink ref="J68" r:id="rId62" xr:uid="{62DD96F2-E96B-4B3F-80FB-38342C909086}"/>
-    <hyperlink ref="J73" r:id="rId63" xr:uid="{7485BAB3-7902-4855-9D03-64AFACAE4F34}"/>
-    <hyperlink ref="J74" r:id="rId64" xr:uid="{C1AD1F99-1747-42CE-A8B9-99899AD87F32}"/>
-    <hyperlink ref="J76" r:id="rId65" xr:uid="{8D702615-E93A-4B4E-B7FA-6AB89CCA4F01}"/>
-    <hyperlink ref="J81" r:id="rId66" xr:uid="{3D0F7606-CBD2-418B-A596-8E28F7178257}"/>
-    <hyperlink ref="J82" r:id="rId67" xr:uid="{3904FA96-D31D-4FA7-81AA-76DDBB10624A}"/>
-    <hyperlink ref="J84" r:id="rId68" xr:uid="{2634FAE3-972E-489C-8826-49ACF6A44E94}"/>
-    <hyperlink ref="J86" r:id="rId69" xr:uid="{A4EF224F-2BB0-4441-8E14-A20748C8C636}"/>
-    <hyperlink ref="J90" r:id="rId70" xr:uid="{4F26FA93-1097-4BC0-B709-969353F34BF7}"/>
-    <hyperlink ref="J91" r:id="rId71" xr:uid="{B738986F-89FB-497A-A1D5-0B831ACFDA24}"/>
-    <hyperlink ref="J92" r:id="rId72" xr:uid="{05309B13-8B9B-497B-916F-61B7EDCA2938}"/>
-    <hyperlink ref="J75" r:id="rId73" xr:uid="{B16ACE4A-0267-4EE8-9C2E-CF2727B59517}"/>
-    <hyperlink ref="J77" r:id="rId74" xr:uid="{942EB330-8093-4946-AC9F-C462CBBD41DC}"/>
-    <hyperlink ref="J78" r:id="rId75" xr:uid="{9F1FB097-60F7-47D7-8D6B-DFE51C6BD438}"/>
-    <hyperlink ref="J79" r:id="rId76" xr:uid="{424DB34A-CE58-4C8B-8873-37089E57BA8E}"/>
-    <hyperlink ref="J80" r:id="rId77" xr:uid="{CE6FC4DF-9591-41A4-8B85-E1C786B1B48E}"/>
-    <hyperlink ref="J83" r:id="rId78" xr:uid="{B0A96171-BD78-4399-80C0-658FFD3BE485}"/>
-    <hyperlink ref="J85" r:id="rId79" xr:uid="{CE12A264-F7FB-44E3-86DC-6CCF626021B3}"/>
-    <hyperlink ref="J87" r:id="rId80" xr:uid="{9BF3F8AF-5ADD-4ABA-A722-9A16575AA8C5}"/>
-    <hyperlink ref="J88" r:id="rId81" xr:uid="{68D58D4A-BEB2-42E0-B725-FADD44A74112}"/>
-    <hyperlink ref="J89" r:id="rId82" xr:uid="{0E322A8D-7A55-493A-AD51-EADAAC9D4D69}"/>
-    <hyperlink ref="J122" r:id="rId83" xr:uid="{EB55E8E3-33E8-489C-AFE5-C678A9F22BF2}"/>
-    <hyperlink ref="J123" r:id="rId84" xr:uid="{76587BB5-DFDE-42AD-BF65-DFEFBA7DB2FF}"/>
-    <hyperlink ref="J124" r:id="rId85" xr:uid="{7B3623C0-D5AC-48E3-9042-2FD832BF87C5}"/>
-    <hyperlink ref="J125" r:id="rId86" xr:uid="{FC439B08-2B1E-45EE-8EC6-92DC8360CC8A}"/>
-    <hyperlink ref="J126" r:id="rId87" xr:uid="{46B6FD12-8D6B-42ED-B80A-26A654155845}"/>
-    <hyperlink ref="J127" r:id="rId88" xr:uid="{03CD8E95-BDA8-43FA-BBCF-E428BB14A0BE}"/>
-    <hyperlink ref="J101" r:id="rId89" xr:uid="{F7B955E8-2949-4FF9-AD1D-3DABF68B9C4B}"/>
-    <hyperlink ref="J102" r:id="rId90" xr:uid="{5C2063D6-D3F3-4FCB-BBD8-928E7203898B}"/>
-    <hyperlink ref="J143" r:id="rId91" xr:uid="{F709EA28-A786-4ED0-B098-20149103B05F}"/>
-    <hyperlink ref="J116" r:id="rId92" xr:uid="{826633BA-8197-415E-922C-A0D4376A6609}"/>
+    <hyperlink ref="J18" r:id="rId54" xr:uid="{E133E2D3-BA11-4945-A655-4AC267AA61E7}"/>
+    <hyperlink ref="J19" r:id="rId55" xr:uid="{879B63CC-43E2-4D1B-BA60-E4621C55AC9A}"/>
+    <hyperlink ref="J51" r:id="rId56" xr:uid="{ED9C68E9-2391-486E-AD4D-85457C3887D3}"/>
+    <hyperlink ref="J99" r:id="rId57" xr:uid="{EC3D2597-2EE7-4C45-96FC-464F13A7EBC5}"/>
+    <hyperlink ref="J46" r:id="rId58" xr:uid="{6EDCD678-3C49-4B32-B307-1FC2F524517A}"/>
+    <hyperlink ref="J47" r:id="rId59" xr:uid="{F4CE70F1-FB50-4DFA-9354-84160DBC3CF4}"/>
+    <hyperlink ref="J48" r:id="rId60" xr:uid="{62672493-A2E3-4869-A2CA-A313FDC0F93B}"/>
+    <hyperlink ref="J49" r:id="rId61" xr:uid="{AAC6F52F-9AF5-4C90-AB8D-9CD9C86E1A96}"/>
+    <hyperlink ref="J50" r:id="rId62" xr:uid="{62DD96F2-E96B-4B3F-80FB-38342C909086}"/>
+    <hyperlink ref="J116" r:id="rId63" xr:uid="{7485BAB3-7902-4855-9D03-64AFACAE4F34}"/>
+    <hyperlink ref="J57" r:id="rId64" xr:uid="{C1AD1F99-1747-42CE-A8B9-99899AD87F32}"/>
+    <hyperlink ref="J58" r:id="rId65" xr:uid="{8D702615-E93A-4B4E-B7FA-6AB89CCA4F01}"/>
+    <hyperlink ref="J59" r:id="rId66" xr:uid="{3D0F7606-CBD2-418B-A596-8E28F7178257}"/>
+    <hyperlink ref="J60" r:id="rId67" xr:uid="{3904FA96-D31D-4FA7-81AA-76DDBB10624A}"/>
+    <hyperlink ref="J61" r:id="rId68" xr:uid="{2634FAE3-972E-489C-8826-49ACF6A44E94}"/>
+    <hyperlink ref="J62" r:id="rId69" xr:uid="{A4EF224F-2BB0-4441-8E14-A20748C8C636}"/>
+    <hyperlink ref="J63" r:id="rId70" xr:uid="{4F26FA93-1097-4BC0-B709-969353F34BF7}"/>
+    <hyperlink ref="J64" r:id="rId71" xr:uid="{B738986F-89FB-497A-A1D5-0B831ACFDA24}"/>
+    <hyperlink ref="J65" r:id="rId72" xr:uid="{05309B13-8B9B-497B-916F-61B7EDCA2938}"/>
+    <hyperlink ref="J96" r:id="rId73" xr:uid="{B16ACE4A-0267-4EE8-9C2E-CF2727B59517}"/>
+    <hyperlink ref="J100" r:id="rId74" xr:uid="{942EB330-8093-4946-AC9F-C462CBBD41DC}"/>
+    <hyperlink ref="J142" r:id="rId75" xr:uid="{9F1FB097-60F7-47D7-8D6B-DFE51C6BD438}"/>
+    <hyperlink ref="J89" r:id="rId76" xr:uid="{424DB34A-CE58-4C8B-8873-37089E57BA8E}"/>
+    <hyperlink ref="J90" r:id="rId77" xr:uid="{CE6FC4DF-9591-41A4-8B85-E1C786B1B48E}"/>
+    <hyperlink ref="J91" r:id="rId78" xr:uid="{B0A96171-BD78-4399-80C0-658FFD3BE485}"/>
+    <hyperlink ref="J92" r:id="rId79" xr:uid="{CE12A264-F7FB-44E3-86DC-6CCF626021B3}"/>
+    <hyperlink ref="J93" r:id="rId80" xr:uid="{9BF3F8AF-5ADD-4ABA-A722-9A16575AA8C5}"/>
+    <hyperlink ref="J94" r:id="rId81" xr:uid="{68D58D4A-BEB2-42E0-B725-FADD44A74112}"/>
+    <hyperlink ref="J95" r:id="rId82" xr:uid="{0E322A8D-7A55-493A-AD51-EADAAC9D4D69}"/>
+    <hyperlink ref="J136" r:id="rId83" xr:uid="{EB55E8E3-33E8-489C-AFE5-C678A9F22BF2}"/>
+    <hyperlink ref="J137" r:id="rId84" xr:uid="{76587BB5-DFDE-42AD-BF65-DFEFBA7DB2FF}"/>
+    <hyperlink ref="J138" r:id="rId85" xr:uid="{7B3623C0-D5AC-48E3-9042-2FD832BF87C5}"/>
+    <hyperlink ref="J139" r:id="rId86" xr:uid="{FC439B08-2B1E-45EE-8EC6-92DC8360CC8A}"/>
+    <hyperlink ref="J140" r:id="rId87" xr:uid="{46B6FD12-8D6B-42ED-B80A-26A654155845}"/>
+    <hyperlink ref="J141" r:id="rId88" xr:uid="{03CD8E95-BDA8-43FA-BBCF-E428BB14A0BE}"/>
+    <hyperlink ref="J55" r:id="rId89" xr:uid="{F7B955E8-2949-4FF9-AD1D-3DABF68B9C4B}"/>
+    <hyperlink ref="J56" r:id="rId90" xr:uid="{5C2063D6-D3F3-4FCB-BBD8-928E7203898B}"/>
+    <hyperlink ref="J88" r:id="rId91" xr:uid="{F709EA28-A786-4ED0-B098-20149103B05F}"/>
+    <hyperlink ref="J132" r:id="rId92" xr:uid="{826633BA-8197-415E-922C-A0D4376A6609}"/>
     <hyperlink ref="J117:J118" r:id="rId93" display="https://www.digikey.com.au/product-detail/en/rohm-semiconductor/ESR03EZPJ102/RHM1.0KDCT-ND/1762924" xr:uid="{82892D82-C7E7-42FC-80BB-B76F3FD6A4FF}"/>
-    <hyperlink ref="J121" r:id="rId94" xr:uid="{E6ADA4A4-CE7E-44DE-827E-7EA507EA4451}"/>
-    <hyperlink ref="J120" r:id="rId95" xr:uid="{EFA96FC7-281C-4638-B51F-97483BE1AABB}"/>
-    <hyperlink ref="J112" r:id="rId96" xr:uid="{339B799A-D28F-410E-9546-7776DB8C8362}"/>
+    <hyperlink ref="J135" r:id="rId94" xr:uid="{E6ADA4A4-CE7E-44DE-827E-7EA507EA4451}"/>
+    <hyperlink ref="J117" r:id="rId95" xr:uid="{EFA96FC7-281C-4638-B51F-97483BE1AABB}"/>
+    <hyperlink ref="J127" r:id="rId96" xr:uid="{339B799A-D28F-410E-9546-7776DB8C8362}"/>
     <hyperlink ref="J113:J115" r:id="rId97" display="https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB333V/P33KDBCT-ND/1466088" xr:uid="{E56E9347-5D96-4AD0-B374-701246DF8A60}"/>
-    <hyperlink ref="J119" r:id="rId98" xr:uid="{12BF7D40-DAE3-4079-9C5C-BE82AC6B3800}"/>
-    <hyperlink ref="J138" r:id="rId99" xr:uid="{DF237F30-8B9D-44A1-8065-445C9EDD645E}"/>
-    <hyperlink ref="J100" r:id="rId100" xr:uid="{81F98BCF-45CF-470D-AAC0-FA54620978B5}"/>
-    <hyperlink ref="J142" r:id="rId101" xr:uid="{0930A92F-60A4-4F9C-A139-7B5084BE60A4}"/>
-    <hyperlink ref="J140" r:id="rId102" xr:uid="{7BD85606-1D44-4028-9271-0EE83185E3C2}"/>
-    <hyperlink ref="J139" r:id="rId103" xr:uid="{8E364694-F831-4421-8361-5DADA5748A53}"/>
-    <hyperlink ref="J141" r:id="rId104" xr:uid="{8DF20DD2-76C3-497A-A723-755CA3C95223}"/>
-    <hyperlink ref="J128" r:id="rId105" xr:uid="{9FB63CCF-9614-4342-9045-5FFC757D7632}"/>
-    <hyperlink ref="J129" r:id="rId106" xr:uid="{B17AE4D3-FA97-42CE-A21F-9AFFAE81F0C1}"/>
+    <hyperlink ref="J131" r:id="rId98" xr:uid="{12BF7D40-DAE3-4079-9C5C-BE82AC6B3800}"/>
+    <hyperlink ref="J98" r:id="rId99" xr:uid="{DF237F30-8B9D-44A1-8065-445C9EDD645E}"/>
+    <hyperlink ref="J102" r:id="rId100" xr:uid="{81F98BCF-45CF-470D-AAC0-FA54620978B5}"/>
+    <hyperlink ref="J97" r:id="rId101" xr:uid="{0930A92F-60A4-4F9C-A139-7B5084BE60A4}"/>
+    <hyperlink ref="J113" r:id="rId102" xr:uid="{7BD85606-1D44-4028-9271-0EE83185E3C2}"/>
+    <hyperlink ref="J114" r:id="rId103" xr:uid="{8E364694-F831-4421-8361-5DADA5748A53}"/>
+    <hyperlink ref="J115" r:id="rId104" xr:uid="{8DF20DD2-76C3-497A-A723-755CA3C95223}"/>
+    <hyperlink ref="J101" r:id="rId105" xr:uid="{9FB63CCF-9614-4342-9045-5FFC757D7632}"/>
+    <hyperlink ref="J103" r:id="rId106" xr:uid="{B17AE4D3-FA97-42CE-A21F-9AFFAE81F0C1}"/>
     <hyperlink ref="J130:J137" r:id="rId107" display="https://www.digikey.com.au/product-detail/en/e-switch/EG1218/EG1903-ND/101726" xr:uid="{7D6981AE-BD5B-4BA4-A3DB-C1A8FC6BF826}"/>
-    <hyperlink ref="J99" r:id="rId108" xr:uid="{849096B8-EDFA-4687-B694-44D350B26EE1}"/>
+    <hyperlink ref="J74" r:id="rId108" xr:uid="{849096B8-EDFA-4687-B694-44D350B26EE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId109"/>

--- a/Hardware/Electronics/Data Acquisition Board/DAQ Board/BoM.xlsx
+++ b/Hardware/Electronics/Data Acquisition Board/DAQ Board/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\trunk\Hardware\Electronics\Data Acquisition Board\DAQ Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708AAB3A-10F2-412E-8838-F3A31998DD5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6264869-D11C-4F6E-AD7B-9B73AB988FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6508AD80-5785-495C-937B-5500FE895B69}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="353">
   <si>
     <t xml:space="preserve">    ADC1</t>
   </si>
@@ -1094,6 +1094,9 @@
   </si>
   <si>
     <t>In Box</t>
+  </si>
+  <si>
+    <t>ADS1299 Analog Front End</t>
   </si>
 </sst>
 </file>
@@ -1178,24 +1181,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF70AD47"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF70AD47"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5729,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE20D855-7A6D-49D9-8684-28A19F146B00}">
   <dimension ref="B1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5974,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f>1-F8</f>
+        <f t="shared" ref="G8:G39" si="0">1-F8</f>
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -6005,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <f>1-F9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -6036,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <f>1-F10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -6067,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>1-F11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -6098,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f>1-F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -6129,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <f>1-F13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -6160,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <f>1-F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -6191,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <f>1-F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -6222,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>1-F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -6253,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f>1-F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -6284,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <f>1-F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -6315,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <f>1-F19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -6346,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <f>1-F20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -6377,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <f>1-F21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -6408,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <f>1-F22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -6439,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <f>1-F23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -6470,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <f>1-F24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -6501,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <f>1-F25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -6532,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <f>1-F26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -6563,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <f>1-F27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -6594,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <f>1-F28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -6625,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <f>1-F29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -6656,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <f>1-F30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -6687,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <f>1-F31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -6718,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <f>1-F32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -6749,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <f>1-F33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -6780,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <f>1-F34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -6811,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <f>1-F35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -6842,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <f>1-F36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -6873,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <f>1-F37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -6904,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <f>1-F38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -6935,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <f>1-F39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -6966,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <f>1-F40</f>
+        <f t="shared" ref="G40:G71" si="1">1-F40</f>
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -6997,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <f>1-F41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -7028,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <f>1-F42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -7059,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <f>1-F43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -7090,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <f>1-F44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -7121,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <f>1-F45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -7152,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <f>1-F46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -7183,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <f>1-F47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -7214,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <f>1-F48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -7245,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <f>1-F49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -7276,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <f>1-F50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H50" s="4" t="s">
@@ -7307,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <f>1-F51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -7338,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <f>1-F52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H52" s="4" t="s">
@@ -7369,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <f>1-F53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -7400,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <f>1-F54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -7431,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <f>1-F55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" t="s">
@@ -7462,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <f>1-F56</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H56" t="s">
@@ -7487,14 +7473,14 @@
         <v>339</v>
       </c>
       <c r="E57">
-        <f>15.71/2</f>
+        <f t="shared" ref="E57:E65" si="2">15.71/2</f>
         <v>7.8550000000000004</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <f>1-F57</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H57" t="s">
@@ -7519,14 +7505,14 @@
         <v>339</v>
       </c>
       <c r="E58">
-        <f>15.71/2</f>
+        <f t="shared" si="2"/>
         <v>7.8550000000000004</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <f>1-F58</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H58" t="s">
@@ -7551,14 +7537,14 @@
         <v>339</v>
       </c>
       <c r="E59">
-        <f>15.71/2</f>
+        <f t="shared" si="2"/>
         <v>7.8550000000000004</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <f>1-F59</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H59" t="s">
@@ -7583,14 +7569,14 @@
         <v>339</v>
       </c>
       <c r="E60">
-        <f>15.71/2</f>
+        <f t="shared" si="2"/>
         <v>7.8550000000000004</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <f>1-F60</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H60" t="s">
@@ -7615,14 +7601,14 @@
         <v>339</v>
       </c>
       <c r="E61">
-        <f>15.71/2</f>
+        <f t="shared" si="2"/>
         <v>7.8550000000000004</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <f>1-F61</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H61" t="s">
@@ -7647,14 +7633,14 @@
         <v>339</v>
       </c>
       <c r="E62">
-        <f>15.71/2</f>
+        <f t="shared" si="2"/>
         <v>7.8550000000000004</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <f>1-F62</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H62" t="s">
@@ -7679,14 +7665,14 @@
         <v>339</v>
       </c>
       <c r="E63">
-        <f>15.71/2</f>
+        <f t="shared" si="2"/>
         <v>7.8550000000000004</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <f>1-F63</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H63" t="s">
@@ -7711,14 +7697,14 @@
         <v>339</v>
       </c>
       <c r="E64">
-        <f>15.71/2</f>
+        <f t="shared" si="2"/>
         <v>7.8550000000000004</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <f>1-F64</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H64" t="s">
@@ -7743,14 +7729,14 @@
         <v>339</v>
       </c>
       <c r="E65">
-        <f>15.71/2</f>
+        <f t="shared" si="2"/>
         <v>7.8550000000000004</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <f>1-F65</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H65" t="s">
@@ -7781,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <f>1-F66</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -7812,7 +7798,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <f>1-F67</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H67" s="4" t="s">
@@ -7843,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <f>1-F68</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H68" s="4" t="s">
@@ -7874,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <f>1-F69</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -7905,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <f>1-F70</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H70" s="4" t="s">
@@ -7936,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <f>1-F71</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -7967,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <f>1-F72</f>
+        <f t="shared" ref="G72:G103" si="3">1-F72</f>
         <v>0</v>
       </c>
       <c r="H72" s="4" t="s">
@@ -7998,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <f>1-F73</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -8029,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <f>1-F74</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H74" t="s">
@@ -8060,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <f>1-F75</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -8091,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <f>1-F76</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H76" s="4" t="s">
@@ -8122,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <f>1-F77</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H77" s="4" t="s">
@@ -8153,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <f>1-F78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="4" t="s">
@@ -8184,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <f>1-F79</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H79" s="4" t="s">
@@ -8215,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <f>1-F80</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H80" s="4" t="s">
@@ -8246,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <f>1-F81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H81" s="4" t="s">
@@ -8277,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <f>1-F82</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H82" s="4" t="s">
@@ -8308,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <f>1-F83</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -8339,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <f>1-F84</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H84" s="4" t="s">
@@ -8370,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <f>1-F85</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H85" s="4" t="s">
@@ -8401,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <f>1-F86</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H86" s="4" t="s">
@@ -8432,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <f>1-F87</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H87" s="4" t="s">
@@ -8463,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <f>1-F88</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H88" t="s">
@@ -8494,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <f>1-F89</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H89" s="4" t="s">
@@ -8525,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <f>1-F90</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H90" s="4" t="s">
@@ -8556,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <f>1-F91</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H91" s="4" t="s">
@@ -8587,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <f>1-F92</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H92" s="4" t="s">
@@ -8618,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <f>1-F93</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H93" s="4" t="s">
@@ -8649,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <f>1-F94</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H94" s="4" t="s">
@@ -8680,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <f>1-F95</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H95" s="4" t="s">
@@ -8711,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <f>1-F96</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H96" s="4" t="s">
@@ -8742,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <f>1-F97</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H97" t="s">
@@ -8773,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <f>1-F98</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H98" t="s">
@@ -8804,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <f>1-F99</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H99" s="4" t="s">
@@ -8835,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <f>1-F100</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H100" s="4" t="s">
@@ -8866,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <f>1-F101</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H101" s="4" t="s">
@@ -8897,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <f>1-F102</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H102" t="s">
@@ -8928,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <f>1-F103</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H103" s="4" t="s">
@@ -8959,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <f>1-F104</f>
+        <f t="shared" ref="G104:G135" si="4">1-F104</f>
         <v>1</v>
       </c>
       <c r="H104" s="4" t="s">
@@ -8990,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <f>1-F105</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H105" s="4" t="s">
@@ -9021,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <f>1-F106</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H106" s="4" t="s">
@@ -9052,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <f>1-F107</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H107" s="4" t="s">
@@ -9083,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <f>1-F108</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H108" s="4" t="s">
@@ -9114,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <f>1-F109</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H109" s="4" t="s">
@@ -9145,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <f>1-F110</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H110" s="4" t="s">
@@ -9176,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <f>1-F111</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H111" s="4" t="s">
@@ -9207,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <f>1-F112</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H112" s="4" t="s">
@@ -9238,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <f>1-F113</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H113" t="s">
@@ -9269,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <f>1-F114</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H114" t="s">
@@ -9300,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <f>1-F115</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H115" t="s">
@@ -9331,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="G116">
-        <f>1-F116</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H116" s="4" t="s">
@@ -9362,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <f>1-F117</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H117" s="4" t="s">
@@ -9393,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <f>1-F118</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H118" s="4" t="s">
@@ -9424,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <f>1-F119</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H119" s="4" t="s">
@@ -9455,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <f>1-F120</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H120" s="4" t="s">
@@ -9486,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <f>1-F121</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H121" s="4" t="s">
@@ -9517,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <f>1-F122</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H122" s="4" t="s">
@@ -9548,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <f>1-F123</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H123" s="4" t="s">
@@ -9579,7 +9565,7 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <f>1-F124</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H124" s="4" t="s">
@@ -9610,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <f>1-F125</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H125" s="4" t="s">
@@ -9641,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="G126">
-        <f>1-F126</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H126" s="4" t="s">
@@ -9672,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <f>1-F127</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H127" s="4" t="s">
@@ -9703,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <f>1-F128</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H128" s="4" t="s">
@@ -9734,7 +9720,7 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <f>1-F129</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H129" s="4" t="s">
@@ -9765,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <f>1-F130</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H130" s="4" t="s">
@@ -9796,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <f>1-F131</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H131" s="4" t="s">
@@ -9827,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="G132">
-        <f>1-F132</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H132" s="4" t="s">
@@ -9858,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <f>1-F133</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H133" s="4" t="s">
@@ -9889,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <f>1-F134</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H134" s="4" t="s">
@@ -9920,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <f>1-F135</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H135" s="4" t="s">
@@ -9951,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <f>1-F136</f>
+        <f t="shared" ref="G136:G167" si="5">1-F136</f>
         <v>0</v>
       </c>
       <c r="H136" s="4" t="s">
@@ -9982,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <f>1-F137</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H137" s="4" t="s">
@@ -10013,7 +9999,7 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <f>1-F138</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H138" s="4" t="s">
@@ -10044,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <f>1-F139</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H139" s="4" t="s">
@@ -10075,7 +10061,7 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <f>1-F140</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H140" s="4" t="s">
@@ -10106,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <f>1-F141</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H141" s="4" t="s">
@@ -10171,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>263</v>
